--- a/Lab 5 - Fale podłużne w ciałach stałych/Zeszyt1.xlsx
+++ b/Lab 5 - Fale podłużne w ciałach stałych/Zeszyt1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>Nr</t>
   </si>
@@ -74,25 +74,190 @@
     <t>Nr 4</t>
   </si>
   <si>
-    <t>Nr 5</t>
-  </si>
-  <si>
     <t>Domnienama prędkość</t>
   </si>
   <si>
     <t>Domniemana częstotliwość</t>
+  </si>
+  <si>
+    <t>Masa pręta [g]</t>
+  </si>
+  <si>
+    <t>Wymiary próbki [mm]</t>
+  </si>
+  <si>
+    <r>
+      <t>Objętość [cm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Gęstość [kg/m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Miedź</t>
+  </si>
+  <si>
+    <t>385 x 2,5 - walec</t>
+  </si>
+  <si>
+    <t>7,56</t>
+  </si>
+  <si>
+    <t>8730,79</t>
+  </si>
+  <si>
+    <t>Stal</t>
+  </si>
+  <si>
+    <t>19 x 14,5 x 14 - prostopadłościan</t>
+  </si>
+  <si>
+    <t>3,86</t>
+  </si>
+  <si>
+    <t>8037,33</t>
+  </si>
+  <si>
+    <t>Mosiądz</t>
+  </si>
+  <si>
+    <t>222 x 10 x 9 - prostopadłościan</t>
+  </si>
+  <si>
+    <t>19,98</t>
+  </si>
+  <si>
+    <t>8708,71</t>
+  </si>
+  <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <t>440 x 2,5 - walec</t>
+  </si>
+  <si>
+    <t>8,64</t>
+  </si>
+  <si>
+    <t>2777,98</t>
+  </si>
+  <si>
+    <t>Patrycja:</t>
+  </si>
+  <si>
+    <t>MIEDŹ</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>STAL</t>
+  </si>
+  <si>
+    <t>MOSIĄDZ</t>
+  </si>
+  <si>
+    <t>ALUMINIUM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -104,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -112,13 +277,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -401,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO95"/>
+  <dimension ref="A1:AO96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,9 +650,14 @@
     <col min="4" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,12 +680,24 @@
         <v>6</v>
       </c>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -474,9 +726,9 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
+    <row r="2" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2" s="1">
         <v>31</v>
@@ -498,11 +750,21 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="5">
+        <v>66</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -531,9 +793,9 @@
       <c r="AN2" s="1"/>
       <c r="AO2" s="1"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
+    <row r="3" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B3" s="1">
         <v>74</v>
@@ -555,11 +817,21 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="J3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="5">
+        <v>31</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -588,9 +860,9 @@
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
+    <row r="4" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B4" s="1">
         <v>12</v>
@@ -612,11 +884,21 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="J4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="5">
+        <v>174</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -645,9 +927,9 @@
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
+    <row r="5" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -669,11 +951,21 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="J5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="5">
+        <v>24</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -702,9 +994,9 @@
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
+    <row r="6" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B6" s="1">
         <v>30</v>
@@ -726,11 +1018,7 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="J6" s="6"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -759,7 +1047,7 @@
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -769,11 +1057,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="J7" s="6"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -803,15 +1087,9 @@
       <c r="AO7" s="1"/>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.8</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -851,25 +1129,21 @@
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
     </row>
-    <row r="9" spans="1:41" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -906,18 +1180,25 @@
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1">
-        <f>2*C8</f>
-        <v>3.6</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+    <row r="10" spans="1:41" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -956,14 +1237,19 @@
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1031.25</v>
+      </c>
       <c r="C11" s="1">
-        <f>C8</f>
-        <v>1.8</v>
-      </c>
-      <c r="D11" s="1"/>
+        <f>2*C9</f>
+        <v>3.6</v>
+      </c>
+      <c r="D11" s="1">
+        <f>C11*B11</f>
+        <v>3712.5</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1004,14 +1290,19 @@
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2062.5</v>
+      </c>
       <c r="C12" s="1">
-        <f>C8*2/3</f>
-        <v>1.2</v>
-      </c>
-      <c r="D12" s="1"/>
+        <f>C9</f>
+        <v>1.8</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" ref="D12:D16" si="2">C12*B12</f>
+        <v>3712.5</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1052,14 +1343,19 @@
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3093.75</v>
+      </c>
       <c r="C13" s="1">
-        <f>C8*2/4</f>
-        <v>0.9</v>
-      </c>
-      <c r="D13" s="1"/>
+        <f>C9*2/3</f>
+        <v>1.2</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="2"/>
+        <v>3712.5</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1100,14 +1396,19 @@
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4125</v>
+      </c>
       <c r="C14" s="1">
-        <f>C8*2/5</f>
-        <v>0.72</v>
-      </c>
-      <c r="D14" s="1"/>
+        <f>C9*2/4</f>
+        <v>0.9</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="2"/>
+        <v>3712.5</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1148,14 +1449,19 @@
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5156.25</v>
+      </c>
       <c r="C15" s="1">
-        <f>C8*2/6</f>
-        <v>0.6</v>
-      </c>
-      <c r="D15" s="1"/>
+        <f>C9*2/5</f>
+        <v>0.72</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="2"/>
+        <v>3712.5</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1195,10 +1501,20 @@
       <c r="AO15" s="1"/>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6187.5</v>
+      </c>
+      <c r="C16" s="1">
+        <f>C9*2/6</f>
+        <v>0.6</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="2"/>
+        <v>3712.5</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1281,15 +1597,9 @@
       <c r="AO17" s="1"/>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.998</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1329,25 +1639,21 @@
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
     </row>
-    <row r="19" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1384,18 +1690,25 @@
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1">
-        <f>2*C18</f>
-        <v>1.996</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+    <row r="20" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1434,14 +1747,19 @@
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1429.6880000000001</v>
+      </c>
       <c r="C21" s="1">
-        <f>C18</f>
-        <v>0.998</v>
-      </c>
-      <c r="D21" s="1"/>
+        <f>2*C19</f>
+        <v>3.6</v>
+      </c>
+      <c r="D21" s="1">
+        <f>C21*B21</f>
+        <v>5146.8768000000009</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1482,14 +1800,17 @@
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1">
-        <f>C18*2/3</f>
-        <v>0.66533333333333333</v>
-      </c>
-      <c r="D22" s="1"/>
+        <f>C19</f>
+        <v>1.8</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" ref="D22:D26" si="3">C22*B22</f>
+        <v>0</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1530,14 +1851,17 @@
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1">
-        <f>C18*2/4</f>
-        <v>0.499</v>
-      </c>
-      <c r="D23" s="1"/>
+        <f>C19*2/3</f>
+        <v>1.2</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1578,14 +1902,17 @@
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1">
-        <f>C18*2/5</f>
-        <v>0.3992</v>
-      </c>
-      <c r="D24" s="1"/>
+        <f>C19*2/4</f>
+        <v>0.9</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1626,14 +1953,17 @@
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1">
-        <f>C18*2/6</f>
-        <v>0.33266666666666667</v>
-      </c>
-      <c r="D25" s="1"/>
+        <f>C19*2/5</f>
+        <v>0.72</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1673,10 +2003,18 @@
       <c r="AO25" s="1"/>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>6</v>
+      </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="1">
+        <f>C19*2/6</f>
+        <v>0.6</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1759,15 +2097,9 @@
       <c r="AO27" s="1"/>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1.8</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1807,25 +2139,21 @@
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
     </row>
-    <row r="29" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1862,18 +2190,25 @@
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1">
-        <f>2*C28</f>
-        <v>3.6</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+    <row r="30" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1912,14 +2247,17 @@
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1">
-        <f>C28</f>
-        <v>1.8</v>
-      </c>
-      <c r="D31" s="1"/>
+        <f>2*C29</f>
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <f>C31*B31</f>
+        <v>0</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1960,14 +2298,17 @@
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1">
-        <f>C28*2/3</f>
-        <v>1.2</v>
-      </c>
-      <c r="D32" s="1"/>
+        <f>C29</f>
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" ref="D32:D36" si="4">C32*B32</f>
+        <v>0</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -2008,14 +2349,17 @@
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1">
-        <f>C28*2/4</f>
-        <v>0.9</v>
-      </c>
-      <c r="D33" s="1"/>
+        <f>C29*2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -2056,14 +2400,17 @@
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1">
-        <f>C28*2/5</f>
-        <v>0.72</v>
-      </c>
-      <c r="D34" s="1"/>
+        <f>C29*2/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2104,14 +2451,17 @@
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1">
-        <f>C28*2/6</f>
-        <v>0.6</v>
-      </c>
-      <c r="D35" s="1"/>
+        <f>C29*2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2151,10 +2501,18 @@
       <c r="AO35" s="1"/>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1">
+        <v>6</v>
+      </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="C36" s="1">
+        <f>C29*2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2237,15 +2595,9 @@
       <c r="AO37" s="1"/>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1.8009999999999999</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2285,25 +2637,21 @@
       <c r="AN38" s="1"/>
       <c r="AO38" s="1"/>
     </row>
-    <row r="39" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2340,18 +2688,25 @@
       <c r="AN39" s="1"/>
       <c r="AO39" s="1"/>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>1</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1">
-        <f>2*C38</f>
-        <v>3.6019999999999999</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+    <row r="40" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2390,14 +2745,17 @@
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1">
-        <f>C38</f>
-        <v>1.8009999999999999</v>
-      </c>
-      <c r="D41" s="1"/>
+        <f>2*C39</f>
+        <v>2</v>
+      </c>
+      <c r="D41" s="1">
+        <f>C41*B41</f>
+        <v>0</v>
+      </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -2438,14 +2796,17 @@
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1">
-        <f>C38*2/3</f>
-        <v>1.2006666666666665</v>
-      </c>
-      <c r="D42" s="1"/>
+        <f>C39</f>
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" ref="D42:D46" si="5">C42*B42</f>
+        <v>0</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -2486,14 +2847,17 @@
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1">
-        <f>C38*2/4</f>
-        <v>0.90049999999999997</v>
-      </c>
-      <c r="D43" s="1"/>
+        <f>C39*2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2534,14 +2898,17 @@
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1">
-        <f>C38*2/5</f>
-        <v>0.72039999999999993</v>
-      </c>
-      <c r="D44" s="1"/>
+        <f>C39*2/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -2582,14 +2949,17 @@
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1">
-        <f>C38*2/6</f>
-        <v>0.60033333333333327</v>
-      </c>
-      <c r="D45" s="1"/>
+        <f>C39*2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -2629,10 +2999,18 @@
       <c r="AO45" s="1"/>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1">
+        <v>6</v>
+      </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="C46" s="1">
+        <f>C39*2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2715,15 +3093,9 @@
       <c r="AO47" s="1"/>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0.999</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2763,25 +3135,13 @@
       <c r="AN48" s="1"/>
       <c r="AO48" s="1"/>
     </row>
-    <row r="49" spans="1:41" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -2819,14 +3179,9 @@
       <c r="AO49" s="1"/>
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>1</v>
-      </c>
+      <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="1">
-        <f>2*C48</f>
-        <v>1.998</v>
-      </c>
+      <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2867,14 +3222,9 @@
       <c r="AO50" s="1"/>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>2</v>
-      </c>
+      <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="1">
-        <f>C48</f>
-        <v>0.999</v>
-      </c>
+      <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2915,14 +3265,9 @@
       <c r="AO51" s="1"/>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>3</v>
-      </c>
+      <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="1">
-        <f>C48*2/3</f>
-        <v>0.66600000000000004</v>
-      </c>
+      <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2963,14 +3308,9 @@
       <c r="AO52" s="1"/>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>4</v>
-      </c>
+      <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="1">
-        <f>C48*2/4</f>
-        <v>0.4995</v>
-      </c>
+      <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -3011,14 +3351,9 @@
       <c r="AO53" s="1"/>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>5</v>
-      </c>
+      <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="1">
-        <f>C48*2/5</f>
-        <v>0.39960000000000001</v>
-      </c>
+      <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -3059,14 +3394,9 @@
       <c r="AO54" s="1"/>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>6</v>
-      </c>
+      <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="1">
-        <f>C48*2/6</f>
-        <v>0.33300000000000002</v>
-      </c>
+      <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -4826,6 +5156,49 @@
       <c r="AN95" s="1"/>
       <c r="AO95" s="1"/>
     </row>
+    <row r="96" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+      <c r="U96" s="1"/>
+      <c r="V96" s="1"/>
+      <c r="W96" s="1"/>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1"/>
+      <c r="AA96" s="1"/>
+      <c r="AB96" s="1"/>
+      <c r="AC96" s="1"/>
+      <c r="AD96" s="1"/>
+      <c r="AE96" s="1"/>
+      <c r="AF96" s="1"/>
+      <c r="AG96" s="1"/>
+      <c r="AH96" s="1"/>
+      <c r="AI96" s="1"/>
+      <c r="AJ96" s="1"/>
+      <c r="AK96" s="1"/>
+      <c r="AL96" s="1"/>
+      <c r="AM96" s="1"/>
+      <c r="AN96" s="1"/>
+      <c r="AO96" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Lab 5 - Fale podłużne w ciałach stałych/Zeszyt1.xlsx
+++ b/Lab 5 - Fale podłużne w ciałach stałych/Zeszyt1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
   <si>
     <t>Nr</t>
   </si>
@@ -72,12 +72,6 @@
   </si>
   <si>
     <t>Nr 4</t>
-  </si>
-  <si>
-    <t>Domnienama prędkość</t>
-  </si>
-  <si>
-    <t>Domniemana częstotliwość</t>
   </si>
   <si>
     <t>Masa pręta [g]</t>
@@ -207,6 +201,42 @@
   <si>
     <t>ALUMINIUM</t>
   </si>
+  <si>
+    <t xml:space="preserve">v średnie = </t>
+  </si>
+  <si>
+    <t>Modół Younga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gęstość = </t>
+  </si>
+  <si>
+    <t>Niepewności</t>
+  </si>
+  <si>
+    <t>u(m) = [g]</t>
+  </si>
+  <si>
+    <t>u(l) = []</t>
+  </si>
+  <si>
+    <t>u(suwmiarka) = []</t>
+  </si>
+  <si>
+    <t>u(objetości) = []</t>
+  </si>
+  <si>
+    <t>u(gęstości) = []</t>
+  </si>
+  <si>
+    <t>u(f) = []</t>
+  </si>
+  <si>
+    <t>u(v) = []</t>
+  </si>
+  <si>
+    <t>u( E ) = []</t>
+  </si>
 </sst>
 </file>
 
@@ -269,7 +299,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -329,11 +359,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -354,6 +441,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -638,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,6 +761,7 @@
     <col min="4" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" customWidth="1"/>
     <col min="12" max="12" width="30.42578125" customWidth="1"/>
@@ -681,22 +793,22 @@
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -728,7 +840,7 @@
     </row>
     <row r="2" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
         <v>31</v>
@@ -751,19 +863,19 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K2" s="5">
         <v>66</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -795,7 +907,7 @@
     </row>
     <row r="3" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1">
         <v>74</v>
@@ -818,19 +930,19 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K3" s="5">
         <v>31</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -862,7 +974,7 @@
     </row>
     <row r="4" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1">
         <v>12</v>
@@ -885,19 +997,19 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K4" s="5">
         <v>174</v>
       </c>
       <c r="L4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -929,7 +1041,7 @@
     </row>
     <row r="5" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -952,19 +1064,19 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K5" s="5">
         <v>24</v>
       </c>
       <c r="L5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -996,7 +1108,7 @@
     </row>
     <row r="6" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1">
         <v>30</v>
@@ -1086,7 +1198,7 @@
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1129,7 +1241,7 @@
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1140,12 +1252,18 @@
         <v>1.8</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8730.7900000000009</v>
+      </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="9" t="s">
+        <v>45</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1180,7 +1298,7 @@
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
     </row>
-    <row r="10" spans="1:41" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1193,12 +1311,10 @@
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="E10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1250,11 +1366,13 @@
         <f>C11*B11</f>
         <v>3712.5</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="H11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="10"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1303,11 +1421,13 @@
         <f t="shared" ref="D12:D16" si="2">C12*B12</f>
         <v>3712.5</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="H12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="11"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1356,11 +1476,13 @@
         <f t="shared" si="2"/>
         <v>3712.5</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="11"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1409,11 +1531,13 @@
         <f t="shared" si="2"/>
         <v>3712.5</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="H14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="11"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1462,11 +1586,13 @@
         <f t="shared" si="2"/>
         <v>3712.5</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="H15" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="11"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1515,11 +1641,13 @@
         <f t="shared" si="2"/>
         <v>3712.5</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="11"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1556,13 +1684,23 @@
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1">
+        <f>AVERAGE(D11:D16)</f>
+        <v>3712.5</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" ref="E12:E17" si="3">$F$9*D17*D17</f>
+        <v>120333477360.93752</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="11"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1596,7 +1734,7 @@
       <c r="AN17" s="1"/>
       <c r="AO17" s="1"/>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1604,8 +1742,10 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="H18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="12"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1650,10 +1790,14 @@
         <v>1.8</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="1">
+        <v>8037.33</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1703,12 +1847,10 @@
       <c r="D20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="E20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1750,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="1">
-        <v>1429.6880000000001</v>
+        <v>1429.69</v>
       </c>
       <c r="C21" s="1">
         <f>2*C19</f>
@@ -1758,9 +1900,9 @@
       </c>
       <c r="D21" s="1">
         <f>C21*B21</f>
-        <v>5146.8768000000009</v>
-      </c>
-      <c r="E21" s="1"/>
+        <v>5146.884</v>
+      </c>
+      <c r="E21" s="8"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1802,16 +1944,18 @@
       <c r="A22" s="1">
         <v>2</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1">
+        <v>2859.38</v>
+      </c>
       <c r="C22" s="1">
         <f>C19</f>
         <v>1.8</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ref="D22:D26" si="3">C22*B22</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="1"/>
+        <f t="shared" ref="D22:D26" si="4">C22*B22</f>
+        <v>5146.884</v>
+      </c>
+      <c r="E22" s="8"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1853,16 +1997,18 @@
       <c r="A23" s="1">
         <v>3</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1">
+        <v>4289.0600000000004</v>
+      </c>
       <c r="C23" s="1">
         <f>C19*2/3</f>
         <v>1.2</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="1"/>
+        <f t="shared" si="4"/>
+        <v>5146.8720000000003</v>
+      </c>
+      <c r="E23" s="8"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1904,16 +2050,18 @@
       <c r="A24" s="1">
         <v>4</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1">
+        <v>5742.19</v>
+      </c>
       <c r="C24" s="1">
         <f>C19*2/4</f>
         <v>0.9</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="1"/>
+        <f t="shared" si="4"/>
+        <v>5167.9709999999995</v>
+      </c>
+      <c r="E24" s="8"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1955,16 +2103,18 @@
       <c r="A25" s="1">
         <v>5</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1">
+        <v>7171.88</v>
+      </c>
       <c r="C25" s="1">
         <f>C19*2/5</f>
         <v>0.72</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="1"/>
+        <f t="shared" si="4"/>
+        <v>5163.7536</v>
+      </c>
+      <c r="E25" s="8"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2006,16 +2156,18 @@
       <c r="A26" s="1">
         <v>6</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1">
+        <v>8601.56</v>
+      </c>
       <c r="C26" s="1">
         <f>C19*2/6</f>
         <v>0.6</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="1"/>
+        <f t="shared" si="4"/>
+        <v>5160.9359999999997</v>
+      </c>
+      <c r="E26" s="8"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -2056,9 +2208,17 @@
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="1">
+        <f>AVERAGE(D21:D26)</f>
+        <v>5155.5500999999995</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" ref="E22:E27" si="5">$F$19*D27*D27</f>
+        <v>213629794751.67868</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2150,10 +2310,14 @@
         <v>1</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="1">
+        <v>8708.7099999999991</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -2203,12 +2367,10 @@
       <c r="D30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="E30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2249,16 +2411,18 @@
       <c r="A31" s="1">
         <v>1</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1">
+        <v>1710.94</v>
+      </c>
       <c r="C31" s="1">
         <f>2*C29</f>
         <v>2</v>
       </c>
       <c r="D31" s="1">
         <f>C31*B31</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="1"/>
+        <v>3421.88</v>
+      </c>
+      <c r="E31" s="8"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -2300,16 +2464,18 @@
       <c r="A32" s="1">
         <v>2</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="1">
+        <v>3445.31</v>
+      </c>
       <c r="C32" s="1">
         <f>C29</f>
         <v>1</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" ref="D32:D36" si="4">C32*B32</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="1"/>
+        <f t="shared" ref="D32:D36" si="6">C32*B32</f>
+        <v>3445.31</v>
+      </c>
+      <c r="E32" s="8"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2351,16 +2517,18 @@
       <c r="A33" s="1">
         <v>3</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1">
+        <v>5156.25</v>
+      </c>
       <c r="C33" s="1">
         <f>C29*2/3</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="1"/>
+        <f t="shared" si="6"/>
+        <v>3437.5</v>
+      </c>
+      <c r="E33" s="8"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2402,16 +2570,18 @@
       <c r="A34" s="1">
         <v>4</v>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B34" s="1">
+        <v>6890.63</v>
+      </c>
       <c r="C34" s="1">
         <f>C29*2/4</f>
         <v>0.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="1"/>
+        <f t="shared" si="6"/>
+        <v>3445.3150000000001</v>
+      </c>
+      <c r="E34" s="8"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -2453,16 +2623,18 @@
       <c r="A35" s="1">
         <v>5</v>
       </c>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1">
+        <v>8601.56</v>
+      </c>
       <c r="C35" s="1">
         <f>C29*2/5</f>
         <v>0.4</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="1"/>
+        <f t="shared" si="6"/>
+        <v>3440.6239999999998</v>
+      </c>
+      <c r="E35" s="8"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2501,19 +2673,19 @@
       <c r="AO35" s="1"/>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>6</v>
-      </c>
+      <c r="A36" s="1"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="1">
-        <f>C29*2/6</f>
-        <v>0.33333333333333331</v>
+      <c r="C36" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="1"/>
+        <f>AVERAGE(D31:D35)</f>
+        <v>3438.1258000000003</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" ref="E32:E36" si="7">$F$29*D36*D36</f>
+        <v>102943126820.17787</v>
+      </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2648,10 +2820,14 @@
         <v>1</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2777.98</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2701,12 +2877,10 @@
       <c r="D40" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="E40" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2747,16 +2921,18 @@
       <c r="A41" s="1">
         <v>1</v>
       </c>
-      <c r="B41" s="1"/>
+      <c r="B41" s="1">
+        <v>2460.94</v>
+      </c>
       <c r="C41" s="1">
         <f>2*C39</f>
         <v>2</v>
       </c>
       <c r="D41" s="1">
         <f>C41*B41</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="1"/>
+        <v>4921.88</v>
+      </c>
+      <c r="E41" s="8"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2798,16 +2974,18 @@
       <c r="A42" s="1">
         <v>2</v>
       </c>
-      <c r="B42" s="1"/>
+      <c r="B42" s="1">
+        <v>4945.3100000000004</v>
+      </c>
       <c r="C42" s="1">
         <f>C39</f>
         <v>1</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" ref="D42:D46" si="5">C42*B42</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="1"/>
+        <f t="shared" ref="D42:D46" si="8">C42*B42</f>
+        <v>4945.3100000000004</v>
+      </c>
+      <c r="E42" s="8"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -2849,16 +3027,18 @@
       <c r="A43" s="1">
         <v>3</v>
       </c>
-      <c r="B43" s="1"/>
+      <c r="B43" s="1">
+        <v>7406.25</v>
+      </c>
       <c r="C43" s="1">
         <f>C39*2/3</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="1"/>
+        <f t="shared" si="8"/>
+        <v>4937.5</v>
+      </c>
+      <c r="E43" s="8"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -2900,16 +3080,18 @@
       <c r="A44" s="1">
         <v>4</v>
       </c>
-      <c r="B44" s="1"/>
+      <c r="B44" s="1">
+        <v>9867.19</v>
+      </c>
       <c r="C44" s="1">
         <f>C39*2/4</f>
         <v>0.5</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="1"/>
+        <f t="shared" si="8"/>
+        <v>4933.5950000000003</v>
+      </c>
+      <c r="E44" s="8"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -2948,19 +3130,19 @@
       <c r="AO44" s="1"/>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>5</v>
-      </c>
+      <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="1">
-        <f>C39*2/5</f>
-        <v>0.4</v>
+      <c r="C45" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="1"/>
+        <f>AVERAGE(D41:D44)</f>
+        <v>4934.57125</v>
+      </c>
+      <c r="E45" s="7">
+        <f t="shared" ref="E42:E45" si="9">$F$39*D45*D45</f>
+        <v>67643794724.576759</v>
+      </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -2999,18 +3181,10 @@
       <c r="AO45" s="1"/>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>6</v>
-      </c>
+      <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="1">
-        <f>C39*2/6</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D46" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -5200,6 +5374,12 @@
       <c r="AO96" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E40:E44"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="E20:E26"/>
+    <mergeCell ref="E10:E16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Lab 5 - Fale podłużne w ciałach stałych/Zeszyt1.xlsx
+++ b/Lab 5 - Fale podłużne w ciałach stałych/Zeszyt1.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
-  <si>
-    <t>Nr</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
   <si>
     <t>Materiał</t>
   </si>
@@ -217,12 +214,6 @@
     <t>u(m) = [g]</t>
   </si>
   <si>
-    <t>u(l) = []</t>
-  </si>
-  <si>
-    <t>u(suwmiarka) = []</t>
-  </si>
-  <si>
     <t>u(objetości) = []</t>
   </si>
   <si>
@@ -236,13 +227,55 @@
   </si>
   <si>
     <t>u( E ) = []</t>
+  </si>
+  <si>
+    <t>u(suwmiarka) = [mm]</t>
+  </si>
+  <si>
+    <t>Wymiary</t>
+  </si>
+  <si>
+    <t>mosiadz</t>
+  </si>
+  <si>
+    <t>a[mm]</t>
+  </si>
+  <si>
+    <t>b[mm]</t>
+  </si>
+  <si>
+    <t>h[mm]</t>
+  </si>
+  <si>
+    <t>Masa[g]</t>
+  </si>
+  <si>
+    <t>Objętość[cm^3</t>
+  </si>
+  <si>
+    <t>Gęstość[kg/m^3]</t>
+  </si>
+  <si>
+    <t>Pole przekroju [mm^2]</t>
+  </si>
+  <si>
+    <t>u(linijka) = [mm]</t>
+  </si>
+  <si>
+    <t>NIE!!!!!!</t>
+  </si>
+  <si>
+    <t>O ta tabelka gęstości</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.00000000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,16 +323,31 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -360,6 +408,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -371,12 +430,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -416,26 +495,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -449,24 +558,94 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -747,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO96"/>
+  <dimension ref="A1:AP96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,51 +946,54 @@
     <col min="12" max="12" width="30.42578125" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" customWidth="1"/>
     <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:42" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="H1" s="29"/>
+      <c r="I1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -837,48 +1019,49 @@
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
-    </row>
-    <row r="2" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="AP1" s="1"/>
+    </row>
+    <row r="2" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="29">
         <v>31</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="29">
         <v>4.0124370000000003</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="29">
         <f>B2/C2</f>
         <v>7.7259780028945002</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="29">
         <f>D2*1000</f>
         <v>7725.9780028945006</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1">
+      <c r="F2" s="29"/>
+      <c r="G2" s="29">
         <v>180</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="4" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="33">
+        <v>66</v>
+      </c>
+      <c r="L2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="5">
-        <v>66</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -904,48 +1087,49 @@
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
       <c r="AO2" s="1"/>
-    </row>
-    <row r="3" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="AP2" s="1"/>
+    </row>
+    <row r="3" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="29">
         <v>74</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="29">
         <v>10.037012000000001</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="29">
         <f t="shared" ref="D3:D6" si="0">B3/C3</f>
         <v>7.3727121179091943</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="29">
         <f t="shared" ref="E3:E6" si="1">D3*1000</f>
         <v>7372.7121179091946</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29">
         <v>99.8</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="4" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="33">
+        <v>31</v>
+      </c>
+      <c r="L3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="5">
-        <v>31</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -971,48 +1155,49 @@
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
-    </row>
-    <row r="4" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="AP3" s="1"/>
+    </row>
+    <row r="4" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="29">
         <v>12</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="29">
         <v>1.59436</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="29">
         <f t="shared" si="0"/>
         <v>7.526531021852028</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="29">
         <f t="shared" si="1"/>
         <v>7526.5310218520281</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29">
         <v>180</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="4" t="s">
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="33">
+        <v>174</v>
+      </c>
+      <c r="L4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="5">
-        <v>174</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -1038,48 +1223,49 @@
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
-    </row>
-    <row r="5" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="AP4" s="1"/>
+    </row>
+    <row r="5" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="29">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="29">
         <v>0.70799999999999996</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="29">
         <f t="shared" si="0"/>
         <v>7.0621468926553677</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="29">
         <f t="shared" si="1"/>
         <v>7062.146892655368</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1">
+      <c r="F5" s="29"/>
+      <c r="G5" s="29">
         <v>180.1</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="4" t="s">
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="33">
+        <v>24</v>
+      </c>
+      <c r="L5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="5">
-        <v>24</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -1105,34 +1291,39 @@
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
-    </row>
-    <row r="6" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="AP5" s="1"/>
+    </row>
+    <row r="6" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="29">
         <v>30</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="29">
         <v>15.748799999999999</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="29">
         <f t="shared" si="0"/>
         <v>1.9049070405364219</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="29">
         <f t="shared" si="1"/>
         <v>1904.9070405364218</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1">
+      <c r="F6" s="29"/>
+      <c r="G6" s="29">
         <v>99.9</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="6"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -1158,8 +1349,9 @@
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
-    </row>
-    <row r="7" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AP6" s="1"/>
+    </row>
+    <row r="7" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1169,7 +1361,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="6"/>
+      <c r="J7" s="2"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1197,8 +1389,9 @@
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
-    </row>
-    <row r="8" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AP7" s="1"/>
+    </row>
+    <row r="8" spans="1:42" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1208,15 +1401,17 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="J8" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1240,40 +1435,54 @@
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
-    </row>
-    <row r="9" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AP8" s="1"/>
+    </row>
+    <row r="9" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>1.8</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>37</v>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="27">
+        <f>$R$11</f>
+        <v>8886.15098929749</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="F9" s="1">
-        <v>8730.7900000000009</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
+      <c r="K9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="23"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -1297,36 +1506,43 @@
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
-    </row>
-    <row r="10" spans="1:41" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AP9" s="1"/>
+    </row>
+    <row r="10" spans="1:42" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>43</v>
+      <c r="E10" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="18"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -1350,8 +1566,9 @@
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP10" s="1"/>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1366,22 +1583,41 @@
         <f>C11*B11</f>
         <v>3712.5</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="10"/>
+      <c r="H11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
+      <c r="K11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="20">
+        <v>67</v>
+      </c>
+      <c r="M11" s="13">
+        <v>5</v>
+      </c>
+      <c r="N11" s="13"/>
+      <c r="O11" s="20">
+        <v>384</v>
+      </c>
+      <c r="P11" s="20">
+        <f>(M11/2)^2*PI()</f>
+        <v>19.634954084936208</v>
+      </c>
+      <c r="Q11" s="20">
+        <f>O11*P11*10^(-3)</f>
+        <v>7.5398223686155035</v>
+      </c>
+      <c r="R11" s="25">
+        <f>(L11*10^(-3))/(Q11*10^(-6))</f>
+        <v>8886.15098929749</v>
+      </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -1405,8 +1641,9 @@
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP11" s="1"/>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1421,22 +1658,43 @@
         <f t="shared" ref="D12:D16" si="2">C12*B12</f>
         <v>3712.5</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="11"/>
+      <c r="H12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
+      <c r="K12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="20">
+        <v>33</v>
+      </c>
+      <c r="M12" s="20">
+        <v>14.4</v>
+      </c>
+      <c r="N12" s="20">
+        <v>13.9</v>
+      </c>
+      <c r="O12" s="20">
+        <v>20</v>
+      </c>
+      <c r="P12" s="20">
+        <f>M12*N12</f>
+        <v>200.16</v>
+      </c>
+      <c r="Q12" s="20">
+        <f>O12*P12*10^(-3)</f>
+        <v>4.0031999999999996</v>
+      </c>
+      <c r="R12" s="25">
+        <f t="shared" ref="R12:R13" si="3">(L12*10^(-3))/(Q12*10^(-6))</f>
+        <v>8243.4052757793779</v>
+      </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
@@ -1460,8 +1718,9 @@
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
       <c r="AO12" s="1"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP12" s="1"/>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1476,22 +1735,43 @@
         <f t="shared" si="2"/>
         <v>3712.5</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="11"/>
+      <c r="H13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.1</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="K13" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="20">
+        <v>175</v>
+      </c>
+      <c r="M13" s="20">
+        <v>10</v>
+      </c>
+      <c r="N13" s="20">
+        <v>9.1</v>
+      </c>
+      <c r="O13" s="20">
+        <v>220</v>
+      </c>
+      <c r="P13" s="20">
+        <f>M13*N13</f>
+        <v>91</v>
+      </c>
+      <c r="Q13" s="20">
+        <f>O13*P13*10^(-3)</f>
+        <v>20.02</v>
+      </c>
+      <c r="R13" s="25">
+        <f t="shared" si="3"/>
+        <v>8741.2587412587436</v>
+      </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -1515,8 +1795,9 @@
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP13" s="1"/>
+    </row>
+    <row r="14" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -1531,22 +1812,39 @@
         <f t="shared" si="2"/>
         <v>3712.5</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="11"/>
+      <c r="H14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="K14" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="17">
+        <v>24</v>
+      </c>
+      <c r="M14" s="16">
+        <v>5</v>
+      </c>
+      <c r="N14" s="16"/>
+      <c r="O14" s="17">
+        <v>438</v>
+      </c>
+      <c r="P14" s="17">
+        <f>(M14/2)^2*PI()</f>
+        <v>19.634954084936208</v>
+      </c>
+      <c r="Q14" s="17">
+        <f>O14*P14*10^(-3)</f>
+        <v>8.6001098892020575</v>
+      </c>
+      <c r="R14" s="26">
+        <f>(L14*10^(-3))/(Q14*10^(-6))</f>
+        <v>2790.6620158578912</v>
+      </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -1570,8 +1868,9 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP14" s="1"/>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -1586,13 +1885,13 @@
         <f t="shared" si="2"/>
         <v>3712.5</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="11"/>
+      <c r="H15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1625,8 +1924,9 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP15" s="1"/>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>6</v>
       </c>
@@ -1641,13 +1941,13 @@
         <f t="shared" si="2"/>
         <v>3712.5</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="11"/>
+      <c r="H16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1680,27 +1980,28 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP16" s="1"/>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="1">
         <f>AVERAGE(D11:D16)</f>
         <v>3712.5</v>
       </c>
-      <c r="E17" s="7">
-        <f t="shared" ref="E12:E17" si="3">$F$9*D17*D17</f>
-        <v>120333477360.93752</v>
+      <c r="E17" s="3">
+        <f t="shared" ref="E17" si="4">$F$9*D17*D17</f>
+        <v>122474764471.08473</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="11"/>
+      <c r="H17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="7"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1709,7 +2010,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
+      <c r="R17" s="25"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -1733,8 +2034,9 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
       <c r="AO17" s="1"/>
-    </row>
-    <row r="18" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AP17" s="1"/>
+    </row>
+    <row r="18" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1742,10 +2044,10 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="12"/>
+      <c r="H18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="8"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1778,25 +2080,27 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP18" s="1"/>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1">
         <v>1.8</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>39</v>
+      <c r="D19" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="1">
-        <v>8037.33</v>
+        <v>43</v>
+      </c>
+      <c r="F19" s="27">
+        <f>$R$12</f>
+        <v>8243.4052757793779</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1833,22 +2137,23 @@
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
-    </row>
-    <row r="20" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+      <c r="AP19" s="1"/>
+    </row>
+    <row r="20" spans="1:42" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>43</v>
+      <c r="E20" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1886,8 +2191,9 @@
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP20" s="1"/>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -1902,7 +2208,7 @@
         <f>C21*B21</f>
         <v>5146.884</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1939,8 +2245,9 @@
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP21" s="1"/>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -1952,10 +2259,10 @@
         <v>1.8</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ref="D22:D26" si="4">C22*B22</f>
+        <f t="shared" ref="D22:D26" si="5">C22*B22</f>
         <v>5146.884</v>
       </c>
-      <c r="E22" s="8"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1992,8 +2299,9 @@
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP22" s="1"/>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -2005,10 +2313,10 @@
         <v>1.2</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5146.8720000000003</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -2045,8 +2353,9 @@
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP23" s="1"/>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -2058,10 +2367,10 @@
         <v>0.9</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5167.9709999999995</v>
       </c>
-      <c r="E24" s="8"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2098,8 +2407,9 @@
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP24" s="1"/>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>5</v>
       </c>
@@ -2111,10 +2421,10 @@
         <v>0.72</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5163.7536</v>
       </c>
-      <c r="E25" s="8"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2151,8 +2461,9 @@
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
-    </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP25" s="1"/>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>6</v>
       </c>
@@ -2164,10 +2475,10 @@
         <v>0.6</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5160.9359999999997</v>
       </c>
-      <c r="E26" s="8"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -2204,20 +2515,21 @@
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP26" s="1"/>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" s="1">
         <f>AVERAGE(D21:D26)</f>
         <v>5155.5500999999995</v>
       </c>
-      <c r="E27" s="7">
-        <f t="shared" ref="E22:E27" si="5">$F$19*D27*D27</f>
-        <v>213629794751.67868</v>
+      <c r="E27" s="3">
+        <f t="shared" ref="E27" si="6">$F$19*D27*D27</f>
+        <v>219107213106.79715</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2255,8 +2567,9 @@
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
-    </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP27" s="1"/>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2298,25 +2611,27 @@
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP28" s="1"/>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>40</v>
+      <c r="D29" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="1">
-        <v>8708.7099999999991</v>
+        <v>43</v>
+      </c>
+      <c r="F29" s="27">
+        <f>$R$13</f>
+        <v>8741.2587412587436</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2353,22 +2668,23 @@
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
-    </row>
-    <row r="30" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+      <c r="AP29" s="1"/>
+    </row>
+    <row r="30" spans="1:42" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>43</v>
+      <c r="E30" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2406,8 +2722,9 @@
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
-    </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP30" s="1"/>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -2422,7 +2739,7 @@
         <f>C31*B31</f>
         <v>3421.88</v>
       </c>
-      <c r="E31" s="8"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -2459,8 +2776,9 @@
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP31" s="1"/>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -2472,10 +2790,10 @@
         <v>1</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" ref="D32:D36" si="6">C32*B32</f>
+        <f t="shared" ref="D32:D36" si="7">C32*B32</f>
         <v>3445.31</v>
       </c>
-      <c r="E32" s="8"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2512,8 +2830,9 @@
       <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
       <c r="AO32" s="1"/>
-    </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP32" s="1"/>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>3</v>
       </c>
@@ -2525,10 +2844,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3437.5</v>
       </c>
-      <c r="E33" s="8"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2565,8 +2884,9 @@
       <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1"/>
-    </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP33" s="1"/>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -2578,10 +2898,10 @@
         <v>0.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3445.3150000000001</v>
       </c>
-      <c r="E34" s="8"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -2618,8 +2938,9 @@
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
       <c r="AO34" s="1"/>
-    </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP34" s="1"/>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>5</v>
       </c>
@@ -2631,10 +2952,10 @@
         <v>0.4</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3440.6239999999998</v>
       </c>
-      <c r="E35" s="8"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2671,20 +2992,21 @@
       <c r="AM35" s="1"/>
       <c r="AN35" s="1"/>
       <c r="AO35" s="1"/>
-    </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP35" s="1"/>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="1">
         <f>AVERAGE(D31:D35)</f>
         <v>3438.1258000000003</v>
       </c>
-      <c r="E36" s="7">
-        <f t="shared" ref="E32:E36" si="7">$F$29*D36*D36</f>
-        <v>102943126820.17787</v>
+      <c r="E36" s="3">
+        <f t="shared" ref="E36" si="8">$F$29*D36*D36</f>
+        <v>103327876019.45494</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2722,8 +3044,9 @@
       <c r="AM36" s="1"/>
       <c r="AN36" s="1"/>
       <c r="AO36" s="1"/>
-    </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP36" s="1"/>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2765,8 +3088,9 @@
       <c r="AM37" s="1"/>
       <c r="AN37" s="1"/>
       <c r="AO37" s="1"/>
-    </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP37" s="1"/>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2808,25 +3132,27 @@
       <c r="AM38" s="1"/>
       <c r="AN38" s="1"/>
       <c r="AO38" s="1"/>
-    </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP38" s="1"/>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>41</v>
+      <c r="D39" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="1">
-        <v>2777.98</v>
+        <v>43</v>
+      </c>
+      <c r="F39" s="27">
+        <f>$R$14</f>
+        <v>2790.6620158578912</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2863,22 +3189,23 @@
       <c r="AM39" s="1"/>
       <c r="AN39" s="1"/>
       <c r="AO39" s="1"/>
-    </row>
-    <row r="40" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+      <c r="AP39" s="1"/>
+    </row>
+    <row r="40" spans="1:42" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>43</v>
+      <c r="E40" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2916,8 +3243,9 @@
       <c r="AM40" s="1"/>
       <c r="AN40" s="1"/>
       <c r="AO40" s="1"/>
-    </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP40" s="1"/>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -2932,7 +3260,7 @@
         <f>C41*B41</f>
         <v>4921.88</v>
       </c>
-      <c r="E41" s="8"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2969,8 +3297,9 @@
       <c r="AM41" s="1"/>
       <c r="AN41" s="1"/>
       <c r="AO41" s="1"/>
-    </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP41" s="1"/>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -2982,10 +3311,10 @@
         <v>1</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" ref="D42:D46" si="8">C42*B42</f>
+        <f t="shared" ref="D42:D46" si="9">C42*B42</f>
         <v>4945.3100000000004</v>
       </c>
-      <c r="E42" s="8"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -3022,8 +3351,9 @@
       <c r="AM42" s="1"/>
       <c r="AN42" s="1"/>
       <c r="AO42" s="1"/>
-    </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP42" s="1"/>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>3</v>
       </c>
@@ -3035,10 +3365,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4937.5</v>
       </c>
-      <c r="E43" s="8"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -3075,8 +3405,9 @@
       <c r="AM43" s="1"/>
       <c r="AN43" s="1"/>
       <c r="AO43" s="1"/>
-    </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP43" s="1"/>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>4</v>
       </c>
@@ -3088,10 +3419,10 @@
         <v>0.5</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4933.5950000000003</v>
       </c>
-      <c r="E44" s="8"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -3128,20 +3459,21 @@
       <c r="AM44" s="1"/>
       <c r="AN44" s="1"/>
       <c r="AO44" s="1"/>
-    </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP44" s="1"/>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D45" s="1">
         <f>AVERAGE(D41:D44)</f>
         <v>4934.57125</v>
       </c>
-      <c r="E45" s="7">
-        <f t="shared" ref="E42:E45" si="9">$F$39*D45*D45</f>
-        <v>67643794724.576759</v>
+      <c r="E45" s="3">
+        <f t="shared" ref="E45" si="10">$F$39*D45*D45</f>
+        <v>67952601727.285568</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -3179,8 +3511,9 @@
       <c r="AM45" s="1"/>
       <c r="AN45" s="1"/>
       <c r="AO45" s="1"/>
-    </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP45" s="1"/>
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3222,8 +3555,9 @@
       <c r="AM46" s="1"/>
       <c r="AN46" s="1"/>
       <c r="AO46" s="1"/>
-    </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP46" s="1"/>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3265,8 +3599,9 @@
       <c r="AM47" s="1"/>
       <c r="AN47" s="1"/>
       <c r="AO47" s="1"/>
-    </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP47" s="1"/>
+    </row>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3308,8 +3643,9 @@
       <c r="AM48" s="1"/>
       <c r="AN48" s="1"/>
       <c r="AO48" s="1"/>
-    </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP48" s="1"/>
+    </row>
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3351,8 +3687,9 @@
       <c r="AM49" s="1"/>
       <c r="AN49" s="1"/>
       <c r="AO49" s="1"/>
-    </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP49" s="1"/>
+    </row>
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3394,8 +3731,9 @@
       <c r="AM50" s="1"/>
       <c r="AN50" s="1"/>
       <c r="AO50" s="1"/>
-    </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP50" s="1"/>
+    </row>
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3437,8 +3775,9 @@
       <c r="AM51" s="1"/>
       <c r="AN51" s="1"/>
       <c r="AO51" s="1"/>
-    </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP51" s="1"/>
+    </row>
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3480,8 +3819,9 @@
       <c r="AM52" s="1"/>
       <c r="AN52" s="1"/>
       <c r="AO52" s="1"/>
-    </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP52" s="1"/>
+    </row>
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3523,8 +3863,9 @@
       <c r="AM53" s="1"/>
       <c r="AN53" s="1"/>
       <c r="AO53" s="1"/>
-    </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP53" s="1"/>
+    </row>
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3566,8 +3907,9 @@
       <c r="AM54" s="1"/>
       <c r="AN54" s="1"/>
       <c r="AO54" s="1"/>
-    </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP54" s="1"/>
+    </row>
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3609,8 +3951,9 @@
       <c r="AM55" s="1"/>
       <c r="AN55" s="1"/>
       <c r="AO55" s="1"/>
-    </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP55" s="1"/>
+    </row>
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3652,8 +3995,9 @@
       <c r="AM56" s="1"/>
       <c r="AN56" s="1"/>
       <c r="AO56" s="1"/>
-    </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP56" s="1"/>
+    </row>
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3695,8 +4039,9 @@
       <c r="AM57" s="1"/>
       <c r="AN57" s="1"/>
       <c r="AO57" s="1"/>
-    </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP57" s="1"/>
+    </row>
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3738,8 +4083,9 @@
       <c r="AM58" s="1"/>
       <c r="AN58" s="1"/>
       <c r="AO58" s="1"/>
-    </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP58" s="1"/>
+    </row>
+    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3781,8 +4127,9 @@
       <c r="AM59" s="1"/>
       <c r="AN59" s="1"/>
       <c r="AO59" s="1"/>
-    </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP59" s="1"/>
+    </row>
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3824,8 +4171,9 @@
       <c r="AM60" s="1"/>
       <c r="AN60" s="1"/>
       <c r="AO60" s="1"/>
-    </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP60" s="1"/>
+    </row>
+    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3867,8 +4215,9 @@
       <c r="AM61" s="1"/>
       <c r="AN61" s="1"/>
       <c r="AO61" s="1"/>
-    </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP61" s="1"/>
+    </row>
+    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3910,8 +4259,9 @@
       <c r="AM62" s="1"/>
       <c r="AN62" s="1"/>
       <c r="AO62" s="1"/>
-    </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP62" s="1"/>
+    </row>
+    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3953,8 +4303,9 @@
       <c r="AM63" s="1"/>
       <c r="AN63" s="1"/>
       <c r="AO63" s="1"/>
-    </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP63" s="1"/>
+    </row>
+    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3996,8 +4347,9 @@
       <c r="AM64" s="1"/>
       <c r="AN64" s="1"/>
       <c r="AO64" s="1"/>
-    </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP64" s="1"/>
+    </row>
+    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4039,8 +4391,9 @@
       <c r="AM65" s="1"/>
       <c r="AN65" s="1"/>
       <c r="AO65" s="1"/>
-    </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP65" s="1"/>
+    </row>
+    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4082,8 +4435,9 @@
       <c r="AM66" s="1"/>
       <c r="AN66" s="1"/>
       <c r="AO66" s="1"/>
-    </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP66" s="1"/>
+    </row>
+    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4125,8 +4479,9 @@
       <c r="AM67" s="1"/>
       <c r="AN67" s="1"/>
       <c r="AO67" s="1"/>
-    </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP67" s="1"/>
+    </row>
+    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4168,8 +4523,9 @@
       <c r="AM68" s="1"/>
       <c r="AN68" s="1"/>
       <c r="AO68" s="1"/>
-    </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP68" s="1"/>
+    </row>
+    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4211,8 +4567,9 @@
       <c r="AM69" s="1"/>
       <c r="AN69" s="1"/>
       <c r="AO69" s="1"/>
-    </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP69" s="1"/>
+    </row>
+    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4254,8 +4611,9 @@
       <c r="AM70" s="1"/>
       <c r="AN70" s="1"/>
       <c r="AO70" s="1"/>
-    </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP70" s="1"/>
+    </row>
+    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4297,8 +4655,9 @@
       <c r="AM71" s="1"/>
       <c r="AN71" s="1"/>
       <c r="AO71" s="1"/>
-    </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP71" s="1"/>
+    </row>
+    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4340,8 +4699,9 @@
       <c r="AM72" s="1"/>
       <c r="AN72" s="1"/>
       <c r="AO72" s="1"/>
-    </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP72" s="1"/>
+    </row>
+    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4383,8 +4743,9 @@
       <c r="AM73" s="1"/>
       <c r="AN73" s="1"/>
       <c r="AO73" s="1"/>
-    </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP73" s="1"/>
+    </row>
+    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4426,8 +4787,9 @@
       <c r="AM74" s="1"/>
       <c r="AN74" s="1"/>
       <c r="AO74" s="1"/>
-    </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP74" s="1"/>
+    </row>
+    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4469,8 +4831,9 @@
       <c r="AM75" s="1"/>
       <c r="AN75" s="1"/>
       <c r="AO75" s="1"/>
-    </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP75" s="1"/>
+    </row>
+    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4512,8 +4875,9 @@
       <c r="AM76" s="1"/>
       <c r="AN76" s="1"/>
       <c r="AO76" s="1"/>
-    </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP76" s="1"/>
+    </row>
+    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4555,8 +4919,9 @@
       <c r="AM77" s="1"/>
       <c r="AN77" s="1"/>
       <c r="AO77" s="1"/>
-    </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP77" s="1"/>
+    </row>
+    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4598,8 +4963,9 @@
       <c r="AM78" s="1"/>
       <c r="AN78" s="1"/>
       <c r="AO78" s="1"/>
-    </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP78" s="1"/>
+    </row>
+    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4641,8 +5007,9 @@
       <c r="AM79" s="1"/>
       <c r="AN79" s="1"/>
       <c r="AO79" s="1"/>
-    </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP79" s="1"/>
+    </row>
+    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4684,8 +5051,9 @@
       <c r="AM80" s="1"/>
       <c r="AN80" s="1"/>
       <c r="AO80" s="1"/>
-    </row>
-    <row r="81" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP80" s="1"/>
+    </row>
+    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4727,8 +5095,9 @@
       <c r="AM81" s="1"/>
       <c r="AN81" s="1"/>
       <c r="AO81" s="1"/>
-    </row>
-    <row r="82" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP81" s="1"/>
+    </row>
+    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4770,8 +5139,9 @@
       <c r="AM82" s="1"/>
       <c r="AN82" s="1"/>
       <c r="AO82" s="1"/>
-    </row>
-    <row r="83" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP82" s="1"/>
+    </row>
+    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4813,8 +5183,9 @@
       <c r="AM83" s="1"/>
       <c r="AN83" s="1"/>
       <c r="AO83" s="1"/>
-    </row>
-    <row r="84" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP83" s="1"/>
+    </row>
+    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4856,8 +5227,9 @@
       <c r="AM84" s="1"/>
       <c r="AN84" s="1"/>
       <c r="AO84" s="1"/>
-    </row>
-    <row r="85" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP84" s="1"/>
+    </row>
+    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4899,8 +5271,9 @@
       <c r="AM85" s="1"/>
       <c r="AN85" s="1"/>
       <c r="AO85" s="1"/>
-    </row>
-    <row r="86" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP85" s="1"/>
+    </row>
+    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4942,8 +5315,9 @@
       <c r="AM86" s="1"/>
       <c r="AN86" s="1"/>
       <c r="AO86" s="1"/>
-    </row>
-    <row r="87" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP86" s="1"/>
+    </row>
+    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4985,8 +5359,9 @@
       <c r="AM87" s="1"/>
       <c r="AN87" s="1"/>
       <c r="AO87" s="1"/>
-    </row>
-    <row r="88" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP87" s="1"/>
+    </row>
+    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -5028,8 +5403,9 @@
       <c r="AM88" s="1"/>
       <c r="AN88" s="1"/>
       <c r="AO88" s="1"/>
-    </row>
-    <row r="89" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP88" s="1"/>
+    </row>
+    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5071,8 +5447,9 @@
       <c r="AM89" s="1"/>
       <c r="AN89" s="1"/>
       <c r="AO89" s="1"/>
-    </row>
-    <row r="90" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP89" s="1"/>
+    </row>
+    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -5114,8 +5491,9 @@
       <c r="AM90" s="1"/>
       <c r="AN90" s="1"/>
       <c r="AO90" s="1"/>
-    </row>
-    <row r="91" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP90" s="1"/>
+    </row>
+    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -5157,8 +5535,9 @@
       <c r="AM91" s="1"/>
       <c r="AN91" s="1"/>
       <c r="AO91" s="1"/>
-    </row>
-    <row r="92" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP91" s="1"/>
+    </row>
+    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -5200,8 +5579,9 @@
       <c r="AM92" s="1"/>
       <c r="AN92" s="1"/>
       <c r="AO92" s="1"/>
-    </row>
-    <row r="93" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP92" s="1"/>
+    </row>
+    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5243,8 +5623,9 @@
       <c r="AM93" s="1"/>
       <c r="AN93" s="1"/>
       <c r="AO93" s="1"/>
-    </row>
-    <row r="94" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP93" s="1"/>
+    </row>
+    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -5286,8 +5667,9 @@
       <c r="AM94" s="1"/>
       <c r="AN94" s="1"/>
       <c r="AO94" s="1"/>
-    </row>
-    <row r="95" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP94" s="1"/>
+    </row>
+    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -5329,8 +5711,9 @@
       <c r="AM95" s="1"/>
       <c r="AN95" s="1"/>
       <c r="AO95" s="1"/>
-    </row>
-    <row r="96" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AP95" s="1"/>
+    </row>
+    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -5372,13 +5755,23 @@
       <c r="AM96" s="1"/>
       <c r="AN96" s="1"/>
       <c r="AO96" s="1"/>
+      <c r="AP96" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="13">
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="J8:R8"/>
     <mergeCell ref="E40:E44"/>
     <mergeCell ref="E30:E35"/>
     <mergeCell ref="E20:E26"/>
     <mergeCell ref="E10:E16"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Lab 5 - Fale podłużne w ciałach stałych/Zeszyt1.xlsx
+++ b/Lab 5 - Fale podłużne w ciałach stałych/Zeszyt1.xlsx
@@ -347,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -537,23 +537,134 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -615,13 +726,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -646,6 +757,48 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -928,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,48 +1105,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29" t="s">
+      <c r="H1" s="27"/>
+      <c r="I1" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -1022,46 +1175,46 @@
       <c r="AP1" s="1"/>
     </row>
     <row r="2" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="27">
         <v>31</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="27">
         <v>4.0124370000000003</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="27">
         <f>B2/C2</f>
         <v>7.7259780028945002</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="27">
         <f>D2*1000</f>
         <v>7725.9780028945006</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27">
         <v>180</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="32" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="33">
+      <c r="K2" s="31">
         <v>66</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1090,46 +1243,46 @@
       <c r="AP2" s="1"/>
     </row>
     <row r="3" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="27">
         <v>74</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="27">
         <v>10.037012000000001</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="27">
         <f t="shared" ref="D3:D6" si="0">B3/C3</f>
         <v>7.3727121179091943</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="27">
         <f t="shared" ref="E3:E6" si="1">D3*1000</f>
         <v>7372.7121179091946</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29">
+      <c r="F3" s="27"/>
+      <c r="G3" s="27">
         <v>99.8</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="32" t="s">
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="31">
         <v>31</v>
       </c>
-      <c r="L3" s="33" t="s">
+      <c r="L3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="N3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -1158,46 +1311,46 @@
       <c r="AP3" s="1"/>
     </row>
     <row r="4" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="27">
         <v>12</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="27">
         <v>1.59436</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="27">
         <f t="shared" si="0"/>
         <v>7.526531021852028</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="27">
         <f t="shared" si="1"/>
         <v>7526.5310218520281</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29">
+      <c r="F4" s="27"/>
+      <c r="G4" s="27">
         <v>180</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="32" t="s">
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="31">
         <v>174</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -1226,46 +1379,46 @@
       <c r="AP4" s="1"/>
     </row>
     <row r="5" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="27">
         <v>5</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="27">
         <v>0.70799999999999996</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="27">
         <f t="shared" si="0"/>
         <v>7.0621468926553677</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="27">
         <f t="shared" si="1"/>
         <v>7062.146892655368</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29">
+      <c r="F5" s="27"/>
+      <c r="G5" s="27">
         <v>180.1</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="32" t="s">
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="31">
         <v>24</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="33" t="s">
+      <c r="M5" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="33" t="s">
+      <c r="N5" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -1294,36 +1447,36 @@
       <c r="AP5" s="1"/>
     </row>
     <row r="6" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="27">
         <v>30</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="27">
         <v>15.748799999999999</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="27">
         <f t="shared" si="0"/>
         <v>1.9049070405364219</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="27">
         <f t="shared" si="1"/>
         <v>1904.9070405364218</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29">
+      <c r="F6" s="27"/>
+      <c r="G6" s="27">
         <v>99.9</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -1401,17 +1554,17 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1438,49 +1591,49 @@
       <c r="AP8" s="1"/>
     </row>
     <row r="9" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="35">
         <v>1.8</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="37">
         <f>$R$11</f>
         <v>8886.15098929749</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="3" t="s">
         <v>44</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="N9" s="23"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="13" t="s">
+      <c r="N9" s="21"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="R9" s="14" t="s">
+      <c r="R9" s="12" t="s">
         <v>59</v>
       </c>
       <c r="S9" s="1"/>
@@ -1509,40 +1662,40 @@
       <c r="AP9" s="1"/>
     </row>
     <row r="10" spans="1:42" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="17" t="s">
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="O10" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="18"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="16"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -1569,52 +1722,52 @@
       <c r="AP10" s="1"/>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="38">
         <v>1</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="18">
         <v>1031.25</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="18">
         <f>2*C9</f>
         <v>3.6</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="39">
         <f>C11*B11</f>
         <v>3712.5</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4">
         <v>1</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="18">
         <v>67</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="11">
         <v>5</v>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="20">
+      <c r="N11" s="11"/>
+      <c r="O11" s="18">
         <v>384</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="18">
         <f>(M11/2)^2*PI()</f>
         <v>19.634954084936208</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="18">
         <f>O11*P11*10^(-3)</f>
         <v>7.5398223686155035</v>
       </c>
-      <c r="R11" s="25">
+      <c r="R11" s="24">
         <f>(L11*10^(-3))/(Q11*10^(-6))</f>
         <v>8886.15098929749</v>
       </c>
@@ -1644,54 +1797,54 @@
       <c r="AP11" s="1"/>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="38">
         <v>2</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="18">
         <v>2062.5</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="18">
         <f>C9</f>
         <v>1.8</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="39">
         <f t="shared" ref="D12:D16" si="2">C12*B12</f>
         <v>3712.5</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="39"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <v>1</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="18">
         <v>33</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="18">
         <v>14.4</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="18">
         <v>13.9</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="18">
         <v>20</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12" s="18">
         <f>M12*N12</f>
         <v>200.16</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12" s="18">
         <f>O12*P12*10^(-3)</f>
         <v>4.0031999999999996</v>
       </c>
-      <c r="R12" s="25">
+      <c r="R12" s="24">
         <f t="shared" ref="R12:R13" si="3">(L12*10^(-3))/(Q12*10^(-6))</f>
         <v>8243.4052757793779</v>
       </c>
@@ -1721,54 +1874,54 @@
       <c r="AP12" s="1"/>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="38">
         <v>3</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="18">
         <v>3093.75</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="18">
         <f>C9*2/3</f>
         <v>1.2</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="39">
         <f t="shared" si="2"/>
         <v>3712.5</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="5">
         <v>0.1</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="18">
         <v>175</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="18">
         <v>10</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13" s="18">
         <v>9.1</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13" s="18">
         <v>220</v>
       </c>
-      <c r="P13" s="20">
+      <c r="P13" s="18">
         <f>M13*N13</f>
         <v>91</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13" s="18">
         <f>O13*P13*10^(-3)</f>
         <v>20.02</v>
       </c>
-      <c r="R13" s="25">
+      <c r="R13" s="24">
         <f t="shared" si="3"/>
         <v>8741.2587412587436</v>
       </c>
@@ -1798,50 +1951,50 @@
       <c r="AP13" s="1"/>
     </row>
     <row r="14" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14" s="38">
         <v>4</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="18">
         <v>4125</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="18">
         <f>C9*2/4</f>
         <v>0.9</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="39">
         <f t="shared" si="2"/>
         <v>3712.5</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="39"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="21" t="s">
+      <c r="K14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="15">
         <v>24</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="14">
         <v>5</v>
       </c>
-      <c r="N14" s="16"/>
-      <c r="O14" s="17">
+      <c r="N14" s="14"/>
+      <c r="O14" s="15">
         <v>438</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="15">
         <f>(M14/2)^2*PI()</f>
         <v>19.634954084936208</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="15">
         <f>O14*P14*10^(-3)</f>
         <v>8.6001098892020575</v>
       </c>
-      <c r="R14" s="26">
+      <c r="R14" s="25">
         <f>(L14*10^(-3))/(Q14*10^(-6))</f>
         <v>2790.6620158578912</v>
       </c>
@@ -1871,27 +2024,27 @@
       <c r="AP14" s="1"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="38">
         <v>5</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="18">
         <v>5156.25</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="18">
         <f>C9*2/5</f>
         <v>0.72</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="39">
         <f t="shared" si="2"/>
         <v>3712.5</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="39"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1927,27 +2080,27 @@
       <c r="AP15" s="1"/>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="40">
         <v>6</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="41">
         <v>6187.5</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="41">
         <f>C9*2/6</f>
         <v>0.6</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="43">
         <f t="shared" si="2"/>
         <v>3712.5</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="39"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1983,25 +2136,25 @@
       <c r="AP16" s="1"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="41">
         <f>AVERAGE(D11:D16)</f>
         <v>3712.5</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="42">
         <f t="shared" ref="E17" si="4">$F$9*D17*D17</f>
         <v>122474764471.08473</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -2010,7 +2163,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="25"/>
+      <c r="R17" s="47"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -2044,10 +2197,10 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="8"/>
+      <c r="I18" s="6"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -2083,22 +2236,22 @@
       <c r="AP18" s="1"/>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="35">
         <v>1.8</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="37">
         <f>$R$12</f>
         <v>8243.4052757793779</v>
       </c>
@@ -2140,22 +2293,22 @@
       <c r="AP19" s="1"/>
     </row>
     <row r="20" spans="1:42" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2194,22 +2347,22 @@
       <c r="AP20" s="1"/>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="38">
         <v>1</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="18">
         <v>1429.69</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="18">
         <f>2*C19</f>
         <v>3.6</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="39">
         <f>C21*B21</f>
         <v>5146.884</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="39"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2248,22 +2401,22 @@
       <c r="AP21" s="1"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="38">
         <v>2</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="18">
         <v>2859.38</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="18">
         <f>C19</f>
         <v>1.8</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="39">
         <f t="shared" ref="D22:D26" si="5">C22*B22</f>
         <v>5146.884</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="1"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="39"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -2302,22 +2455,22 @@
       <c r="AP22" s="1"/>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="38">
         <v>3</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="18">
         <v>4289.0600000000004</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="18">
         <f>C19*2/3</f>
         <v>1.2</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="39">
         <f t="shared" si="5"/>
         <v>5146.8720000000003</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="1"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="39"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2356,22 +2509,22 @@
       <c r="AP23" s="1"/>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="38">
         <v>4</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="18">
         <v>5742.19</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="18">
         <f>C19*2/4</f>
         <v>0.9</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="39">
         <f t="shared" si="5"/>
         <v>5167.9709999999995</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="1"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="39"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2410,22 +2563,22 @@
       <c r="AP24" s="1"/>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="38">
         <v>5</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="18">
         <v>7171.88</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="18">
         <f>C19*2/5</f>
         <v>0.72</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="39">
         <f t="shared" si="5"/>
         <v>5163.7536</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="1"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="39"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2464,22 +2617,22 @@
       <c r="AP25" s="1"/>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="40">
         <v>6</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="41">
         <v>8601.56</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="41">
         <f>C19*2/6</f>
         <v>0.6</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="43">
         <f t="shared" si="5"/>
         <v>5160.9359999999997</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="1"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="39"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2518,20 +2671,20 @@
       <c r="AP26" s="1"/>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="41">
         <f>AVERAGE(D21:D26)</f>
         <v>5155.5500999999995</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="42">
         <f t="shared" ref="E27" si="6">$F$19*D27*D27</f>
         <v>219107213106.79715</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="43"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2614,22 +2767,22 @@
       <c r="AP28" s="1"/>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="35">
         <v>1</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F29" s="37">
         <f>$R$13</f>
         <v>8741.2587412587436</v>
       </c>
@@ -2671,22 +2824,22 @@
       <c r="AP29" s="1"/>
     </row>
     <row r="30" spans="1:42" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="F30" s="39"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2725,22 +2878,22 @@
       <c r="AP30" s="1"/>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="38">
         <v>1</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="18">
         <v>1710.94</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="18">
         <f>2*C29</f>
         <v>2</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="39">
         <f>C31*B31</f>
         <v>3421.88</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="1"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="39"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2779,22 +2932,22 @@
       <c r="AP31" s="1"/>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="38">
         <v>2</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="18">
         <v>3445.31</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="18">
         <f>C29</f>
         <v>1</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="39">
         <f t="shared" ref="D32:D36" si="7">C32*B32</f>
         <v>3445.31</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="1"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="39"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2833,22 +2986,22 @@
       <c r="AP32" s="1"/>
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="38">
         <v>3</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="18">
         <v>5156.25</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="18">
         <f>C29*2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="39">
         <f t="shared" si="7"/>
         <v>3437.5</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="1"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="39"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2887,22 +3040,22 @@
       <c r="AP33" s="1"/>
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="38">
         <v>4</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="18">
         <v>6890.63</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="18">
         <f>C29*2/4</f>
         <v>0.5</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="39">
         <f t="shared" si="7"/>
         <v>3445.3150000000001</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="1"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2941,22 +3094,22 @@
       <c r="AP34" s="1"/>
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="40">
         <v>5</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="41">
         <v>8601.56</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="41">
         <f>C29*2/5</f>
         <v>0.4</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="43">
         <f t="shared" si="7"/>
         <v>3440.6239999999998</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="1"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="39"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2995,20 +3148,20 @@
       <c r="AP35" s="1"/>
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
+      <c r="A36" s="40"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="41">
         <f>AVERAGE(D31:D35)</f>
         <v>3438.1258000000003</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="42">
         <f t="shared" ref="E36" si="8">$F$29*D36*D36</f>
         <v>103327876019.45494</v>
       </c>
-      <c r="F36" s="1"/>
+      <c r="F36" s="43"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -3135,22 +3288,22 @@
       <c r="AP38" s="1"/>
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="35">
         <v>1</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="27">
+      <c r="F39" s="37">
         <f>$R$14</f>
         <v>2790.6620158578912</v>
       </c>
@@ -3192,22 +3345,22 @@
       <c r="AP39" s="1"/>
     </row>
     <row r="40" spans="1:42" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="1"/>
+      <c r="F40" s="39"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -3246,22 +3399,22 @@
       <c r="AP40" s="1"/>
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="A41" s="38">
         <v>1</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="18">
         <v>2460.94</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="18">
         <f>2*C39</f>
         <v>2</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="39">
         <f>C41*B41</f>
         <v>4921.88</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="1"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="39"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -3300,22 +3453,22 @@
       <c r="AP41" s="1"/>
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42" s="38">
         <v>2</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="18">
         <v>4945.3100000000004</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="18">
         <f>C39</f>
         <v>1</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="39">
         <f t="shared" ref="D42:D46" si="9">C42*B42</f>
         <v>4945.3100000000004</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="1"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="39"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -3354,22 +3507,22 @@
       <c r="AP42" s="1"/>
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="A43" s="38">
         <v>3</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="18">
         <v>7406.25</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="18">
         <f>C39*2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="39">
         <f t="shared" si="9"/>
         <v>4937.5</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="1"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="39"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -3408,22 +3561,22 @@
       <c r="AP43" s="1"/>
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="A44" s="40">
         <v>4</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="41">
         <v>9867.19</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="41">
         <f>C39*2/4</f>
         <v>0.5</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="43">
         <f t="shared" si="9"/>
         <v>4933.5950000000003</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="1"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="39"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -3462,20 +3615,20 @@
       <c r="AP44" s="1"/>
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1" t="s">
+      <c r="A45" s="40"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="41">
         <f>AVERAGE(D41:D44)</f>
         <v>4934.57125</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="42">
         <f t="shared" ref="E45" si="10">$F$39*D45*D45</f>
         <v>67952601727.285568</v>
       </c>
-      <c r="F45" s="1"/>
+      <c r="F45" s="43"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>

--- a/Lab 5 - Fale podłużne w ciałach stałych/Zeszyt1.xlsx
+++ b/Lab 5 - Fale podłużne w ciałach stałych/Zeszyt1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="75">
   <si>
     <t>Materiał</t>
   </si>
@@ -214,15 +214,9 @@
     <t>u(m) = [g]</t>
   </si>
   <si>
-    <t>u(objetości) = []</t>
-  </si>
-  <si>
     <t>u(gęstości) = []</t>
   </si>
   <si>
-    <t>u(f) = []</t>
-  </si>
-  <si>
     <t>u(v) = []</t>
   </si>
   <si>
@@ -266,6 +260,45 @@
   </si>
   <si>
     <t>O ta tabelka gęstości</t>
+  </si>
+  <si>
+    <t>u(objetości) = [mm^3]</t>
+  </si>
+  <si>
+    <t>u( E )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>u(V) [mm^3]</t>
+  </si>
+  <si>
+    <t>u(f) = [Hz]</t>
+  </si>
+  <si>
+    <t>w tabelce</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>przyk. Lambda [m]</t>
+  </si>
+  <si>
+    <t>u(gęstosći) [kg/m^3]</t>
+  </si>
+  <si>
+    <t>u(V) [m^3]</t>
+  </si>
+  <si>
+    <t>f dla  lambda [Hz]</t>
+  </si>
+  <si>
+    <t>v śr [m/s]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u(v) [m/s]                                                                                                                                     </t>
   </si>
 </sst>
 </file>
@@ -273,7 +306,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -658,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -675,9 +708,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -687,25 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -717,25 +729,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -766,7 +763,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -796,7 +793,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1079,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP96"/>
+  <dimension ref="A1:AU96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,6 +1130,7 @@
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
     <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" customWidth="1"/>
     <col min="12" max="12" width="30.42578125" customWidth="1"/>
@@ -1102,51 +1139,56 @@
     <col min="16" max="16" width="13.7109375" customWidth="1"/>
     <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" customWidth="1"/>
+    <col min="21" max="25" width="12.28515625" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:47" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27" t="s">
+      <c r="H1" s="15"/>
+      <c r="I1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
@@ -1159,7 +1201,6 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
@@ -1173,48 +1214,53 @@
       <c r="AN1" s="1"/>
       <c r="AO1" s="1"/>
       <c r="AP1" s="1"/>
-    </row>
-    <row r="2" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+    </row>
+    <row r="2" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="15">
         <v>31</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="15">
         <v>4.0124370000000003</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="15">
         <f>B2/C2</f>
         <v>7.7259780028945002</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="15">
         <f>D2*1000</f>
         <v>7725.9780028945006</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15">
         <v>180</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="30" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="31">
+      <c r="K2" s="19">
         <v>66</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1227,7 +1273,6 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
@@ -1241,48 +1286,53 @@
       <c r="AN2" s="1"/>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
-    </row>
-    <row r="3" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="27">
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+    </row>
+    <row r="3" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="15">
         <v>74</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="15">
         <v>10.037012000000001</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="15">
         <f t="shared" ref="D3:D6" si="0">B3/C3</f>
         <v>7.3727121179091943</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="15">
         <f t="shared" ref="E3:E6" si="1">D3*1000</f>
         <v>7372.7121179091946</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15">
         <v>99.8</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="30" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="19">
         <v>31</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -1295,7 +1345,6 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
@@ -1309,48 +1358,53 @@
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
       <c r="AP3" s="1"/>
-    </row>
-    <row r="4" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+    </row>
+    <row r="4" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="15">
         <v>12</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="15">
         <v>1.59436</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="15">
         <f t="shared" si="0"/>
         <v>7.526531021852028</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="15">
         <f t="shared" si="1"/>
         <v>7526.5310218520281</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27">
+      <c r="F4" s="15"/>
+      <c r="G4" s="15">
         <v>180</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="30" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="19">
         <v>174</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -1363,7 +1417,6 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
@@ -1377,48 +1430,53 @@
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
       <c r="AP4" s="1"/>
-    </row>
-    <row r="5" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+    </row>
+    <row r="5" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="15">
         <v>5</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="15">
         <v>0.70799999999999996</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="15">
         <f t="shared" si="0"/>
         <v>7.0621468926553677</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="15">
         <f t="shared" si="1"/>
         <v>7062.146892655368</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27">
+      <c r="F5" s="15"/>
+      <c r="G5" s="15">
         <v>180.1</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="30" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="19">
         <v>24</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="31" t="s">
+      <c r="M5" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="N5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -1431,7 +1489,6 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
@@ -1445,38 +1502,43 @@
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
-    </row>
-    <row r="6" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+    </row>
+    <row r="6" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="15">
         <v>30</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="15">
         <v>15.748799999999999</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="15">
         <f t="shared" si="0"/>
         <v>1.9049070405364219</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="15">
         <f t="shared" si="1"/>
         <v>1904.9070405364218</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27">
+      <c r="F6" s="15"/>
+      <c r="G6" s="15">
         <v>99.9</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -1489,7 +1551,6 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
@@ -1503,8 +1564,13 @@
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
       <c r="AP6" s="1"/>
-    </row>
-    <row r="7" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+    </row>
+    <row r="7" spans="1:47" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1529,7 +1595,6 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
@@ -1543,8 +1608,13 @@
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
       <c r="AP7" s="1"/>
-    </row>
-    <row r="8" spans="1:42" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+    </row>
+    <row r="8" spans="1:47" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1554,17 +1624,17 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
+      <c r="J8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1575,7 +1645,6 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
@@ -1589,24 +1658,29 @@
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
       <c r="AP8" s="1"/>
-    </row>
-    <row r="9" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+    </row>
+    <row r="9" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="23">
         <v>1.8</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="25">
         <f>$R$11</f>
         <v>8886.15098929749</v>
       </c>
@@ -1616,37 +1690,54 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="43"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q9" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
+      <c r="S9" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="T9" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="U9" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="V9" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="W9" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="X9" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y9" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA9" s="47" t="s">
+        <v>63</v>
+      </c>
       <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
@@ -1660,53 +1751,57 @@
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
       <c r="AP9" s="1"/>
-    </row>
-    <row r="10" spans="1:42" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+    </row>
+    <row r="10" spans="1:47" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="39"/>
+      <c r="F10" s="27"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="15" t="s">
+      <c r="K10" s="46"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
       <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
@@ -1720,68 +1815,99 @@
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
       <c r="AP10" s="1"/>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
         <v>1</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="11">
         <v>1031.25</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="11">
         <f>2*C9</f>
         <v>3.6</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="27">
         <f>C11*B11</f>
         <v>3712.5</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="39"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="6" t="s">
         <v>45</v>
       </c>
       <c r="I11" s="4">
         <v>1</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="11">
         <v>67</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="36">
         <v>5</v>
       </c>
-      <c r="N11" s="11"/>
-      <c r="O11" s="18">
+      <c r="N11" s="36"/>
+      <c r="O11" s="11">
         <v>384</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P11" s="11">
         <f>(M11/2)^2*PI()</f>
         <v>19.634954084936208</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="11">
         <f>O11*P11*10^(-3)</f>
         <v>7.5398223686155035</v>
       </c>
-      <c r="R11" s="24">
+      <c r="R11" s="13">
         <f>(L11*10^(-3))/(Q11*10^(-6))</f>
         <v>8886.15098929749</v>
       </c>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
+      <c r="S11" s="1">
+        <f>((2*PI()*M11*O11*$I$13)^2+(PI()*M11*M11*$I$13)^2)^(1/2)</f>
+        <v>1206.3971450540403</v>
+      </c>
+      <c r="T11" s="1">
+        <f>S11*(10^(-3)^(3))</f>
+        <v>1.2063971450540404E-6</v>
+      </c>
+      <c r="U11" s="1">
+        <f>(($I$11*10^(-3)/(Q11*10^(-6)*1000))^2+(L11*10^(-3)*T11/(Q11*Q11*10^(-6)*10^(-6)))^2)^(1/2)</f>
+        <v>1421.8142956883651</v>
+      </c>
+      <c r="V11" s="1">
+        <f>C11</f>
+        <v>3.6</v>
+      </c>
+      <c r="W11" s="1">
+        <f>B11</f>
+        <v>1031.25</v>
+      </c>
+      <c r="X11" s="1">
+        <f>D17</f>
+        <v>3712.5</v>
+      </c>
+      <c r="Y11" s="1">
+        <f>E17</f>
+        <v>122474764471.08473</v>
+      </c>
+      <c r="Z11" s="1">
+        <f>((W11*$I$12*10^(-3))^2+(V11*$I$16)^2)^(1/2)</f>
+        <v>72.007384875181373</v>
+      </c>
+      <c r="AA11" s="1">
+        <f>((X11*X11*U11)^2+(2*R11*X11*Z11)^2)^(1/2)</f>
+        <v>20164083006.425426</v>
+      </c>
       <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
@@ -1795,70 +1921,101 @@
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
       <c r="AP11" s="1"/>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
         <v>2</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="11">
         <v>2062.5</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="11">
         <f>C9</f>
         <v>1.8</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="27">
         <f t="shared" ref="D12:D16" si="2">C12*B12</f>
         <v>3712.5</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="39"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="8" t="s">
-        <v>61</v>
+      <c r="H12" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="I12" s="5">
         <v>1</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="11">
         <v>33</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="11">
         <v>14.4</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="11">
         <v>13.9</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="11">
         <v>20</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="11">
         <f>M12*N12</f>
         <v>200.16</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="11">
         <f>O12*P12*10^(-3)</f>
         <v>4.0031999999999996</v>
       </c>
-      <c r="R12" s="24">
+      <c r="R12" s="13">
         <f t="shared" ref="R12:R13" si="3">(L12*10^(-3))/(Q12*10^(-6))</f>
         <v>8243.4052757793779</v>
       </c>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
+      <c r="S12" s="1">
+        <f>((M12*N12*I13)^2+(M12*O12*I13)^2+(N12*O12*I13)^2)^(1/2)</f>
+        <v>44.753997095231618</v>
+      </c>
+      <c r="T12" s="1">
+        <f t="shared" ref="T12:T14" si="4">S12*(10^(-3)^(3))</f>
+        <v>4.4753997095231624E-8</v>
+      </c>
+      <c r="U12" s="1">
+        <f t="shared" ref="U12:U14" si="5">(($I$11*10^(-3)/(Q12*10^(-6)*1000))^2+(L12*10^(-3)*T12/(Q12*Q12*10^(-6)*10^(-6)))^2)^(1/2)</f>
+        <v>92.157946405960217</v>
+      </c>
+      <c r="V12" s="1">
+        <f>C21</f>
+        <v>3.6</v>
+      </c>
+      <c r="W12" s="1">
+        <f>B21</f>
+        <v>1429.69</v>
+      </c>
+      <c r="X12" s="1">
+        <f>D27</f>
+        <v>5155.5500999999995</v>
+      </c>
+      <c r="Y12" s="1">
+        <f>E27</f>
+        <v>219107213106.79715</v>
+      </c>
+      <c r="Z12" s="1">
+        <f t="shared" ref="Z12:Z14" si="6">((W12*$I$12*10^(-3))^2+(V12*$I$16)^2)^(1/2)</f>
+        <v>72.014193139242352</v>
+      </c>
+      <c r="AA12" s="1">
+        <f t="shared" ref="AA12:AA14" si="7">((X12*X12*U12)^2+(2*R12*X12*Z12)^2)^(1/2)</f>
+        <v>6593035167.5852833</v>
+      </c>
       <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
@@ -1872,70 +2029,100 @@
       <c r="AN12" s="1"/>
       <c r="AO12" s="1"/>
       <c r="AP12" s="1"/>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
         <v>3</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="11">
         <v>3093.75</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="11">
         <f>C9*2/3</f>
         <v>1.2</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="27">
         <f t="shared" si="2"/>
         <v>3712.5</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="39"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="8" t="s">
-        <v>51</v>
+      <c r="H13" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="I13" s="5">
         <v>0.1</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="11">
         <v>175</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="11">
         <v>10</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="11">
         <v>9.1</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="11">
         <v>220</v>
       </c>
-      <c r="P13" s="18">
+      <c r="P13" s="11">
         <f>M13*N13</f>
         <v>91</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q13" s="11">
         <f>O13*P13*10^(-3)</f>
         <v>20.02</v>
       </c>
-      <c r="R13" s="24">
+      <c r="R13" s="13">
         <f t="shared" si="3"/>
         <v>8741.2587412587436</v>
       </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
+      <c r="S13" s="1">
+        <f>((M13*N13*$I$13)^2+(M13*O13*$I$13)^2+(N13*O13*$I$13)^2)^(1/2)</f>
+        <v>297.59511084693582</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9759511084693582E-7</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="5"/>
+        <v>129.93786494775696</v>
+      </c>
+      <c r="V13" s="1">
+        <v>2</v>
+      </c>
+      <c r="W13" s="1">
+        <f>B31</f>
+        <v>1710.94</v>
+      </c>
+      <c r="X13" s="1">
+        <f>D36</f>
+        <v>3438.1258000000003</v>
+      </c>
+      <c r="Y13" s="1">
+        <f>E36</f>
+        <v>103327876019.45494</v>
+      </c>
+      <c r="Z13" s="1">
+        <f t="shared" si="6"/>
+        <v>40.03657472466395</v>
+      </c>
+      <c r="AA13" s="1">
+        <f t="shared" si="7"/>
+        <v>2854876967.140564</v>
+      </c>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
@@ -1949,66 +2136,98 @@
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
       <c r="AP13" s="1"/>
-    </row>
-    <row r="14" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="38">
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+    </row>
+    <row r="14" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26">
         <v>4</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="11">
         <v>4125</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="11">
         <f>C9*2/4</f>
         <v>0.9</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="27">
         <f t="shared" si="2"/>
         <v>3712.5</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="39"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="5"/>
+      <c r="H14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="9">
         <v>24</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="37">
         <v>5</v>
       </c>
-      <c r="N14" s="14"/>
-      <c r="O14" s="15">
+      <c r="N14" s="37"/>
+      <c r="O14" s="9">
         <v>438</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="9">
         <f>(M14/2)^2*PI()</f>
         <v>19.634954084936208</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="Q14" s="9">
         <f>O14*P14*10^(-3)</f>
         <v>8.6001098892020575</v>
       </c>
-      <c r="R14" s="25">
+      <c r="R14" s="14">
         <f>(L14*10^(-3))/(Q14*10^(-6))</f>
         <v>2790.6620158578912</v>
       </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
+      <c r="S14" s="1">
+        <f>((2*PI()*M14*O14*$I$13)^2+(PI()*M14*M14*$I$13)^2)^(1/2)</f>
+        <v>1376.039996420923</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3760399964209231E-6</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" si="5"/>
+        <v>446.51321087661148</v>
+      </c>
+      <c r="V14" s="1">
+        <v>2</v>
+      </c>
+      <c r="W14" s="1">
+        <f>C41</f>
+        <v>2</v>
+      </c>
+      <c r="X14" s="1">
+        <f>D45</f>
+        <v>4934.57125</v>
+      </c>
+      <c r="Y14" s="1">
+        <f>E45</f>
+        <v>67952601727.285568</v>
+      </c>
+      <c r="Z14" s="1">
+        <f t="shared" si="6"/>
+        <v>40.000000049999997</v>
+      </c>
+      <c r="AA14" s="1">
+        <f t="shared" si="7"/>
+        <v>10928263556.647144</v>
+      </c>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
@@ -2022,29 +2241,36 @@
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
       <c r="AP14" s="1"/>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A15" s="26">
         <v>5</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="11">
         <v>5156.25</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="11">
         <f>C9*2/5</f>
         <v>0.72</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="27">
         <f t="shared" si="2"/>
         <v>3712.5</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="39"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="5"/>
+      <c r="H15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -2054,7 +2280,9 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="S15" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
@@ -2064,7 +2292,6 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
@@ -2078,29 +2305,36 @@
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A16" s="40">
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A16" s="28">
         <v>6</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="29">
         <v>6187.5</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="29">
         <f>C9*2/6</f>
         <v>0.6</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="31">
         <f t="shared" si="2"/>
         <v>3712.5</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="39"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="5"/>
+      <c r="H16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="5">
+        <v>20</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -2120,7 +2354,6 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
@@ -2134,27 +2367,34 @@
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
       <c r="AP16" s="1"/>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41" t="s">
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="29">
         <f>AVERAGE(D11:D16)</f>
         <v>3712.5</v>
       </c>
-      <c r="E17" s="42">
-        <f t="shared" ref="E17" si="4">$F$9*D17*D17</f>
+      <c r="E17" s="30">
+        <f t="shared" ref="E17" si="8">$F$9*D17*D17</f>
         <v>122474764471.08473</v>
       </c>
-      <c r="F17" s="43"/>
+      <c r="F17" s="31"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="5"/>
+      <c r="H17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -2163,7 +2403,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="47"/>
+      <c r="R17" s="35"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
@@ -2174,7 +2414,6 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
@@ -2188,8 +2427,13 @@
       <c r="AN17" s="1"/>
       <c r="AO17" s="1"/>
       <c r="AP17" s="1"/>
-    </row>
-    <row r="18" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+    </row>
+    <row r="18" spans="1:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2197,10 +2441,12 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="6"/>
+      <c r="H18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -2220,7 +2466,6 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
@@ -2234,24 +2479,29 @@
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
       <c r="AP18" s="1"/>
-    </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+    </row>
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="23">
         <v>1.8</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="25">
         <f>$R$12</f>
         <v>8243.4052757793779</v>
       </c>
@@ -2277,7 +2527,6 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
@@ -2291,24 +2540,29 @@
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
       <c r="AP19" s="1"/>
-    </row>
-    <row r="20" spans="1:42" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+    </row>
+    <row r="20" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="39"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -2331,7 +2585,6 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
@@ -2345,30 +2598,35 @@
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
       <c r="AP20" s="1"/>
-    </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+    </row>
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
         <v>1</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="11">
         <v>1429.69</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="11">
         <f>2*C19</f>
         <v>3.6</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="27">
         <f>C21*B21</f>
         <v>5146.884</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="39"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="27"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="L21" s="5"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -2385,7 +2643,6 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
@@ -2399,30 +2656,35 @@
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
       <c r="AP21" s="1"/>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+    </row>
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
         <v>2</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="11">
         <v>2859.38</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="11">
         <f>C19</f>
         <v>1.8</v>
       </c>
-      <c r="D22" s="39">
-        <f t="shared" ref="D22:D26" si="5">C22*B22</f>
+      <c r="D22" s="27">
+        <f t="shared" ref="D22:D26" si="9">C22*B22</f>
         <v>5146.884</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="39"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="L22" s="5"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -2439,7 +2701,6 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
@@ -2453,24 +2714,29 @@
       <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
       <c r="AP22" s="1"/>
-    </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+    </row>
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
         <v>3</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="11">
         <v>4289.0600000000004</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="11">
         <f>C19*2/3</f>
         <v>1.2</v>
       </c>
-      <c r="D23" s="39">
-        <f t="shared" si="5"/>
+      <c r="D23" s="27">
+        <f t="shared" si="9"/>
         <v>5146.8720000000003</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="39"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -2493,7 +2759,6 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
@@ -2507,24 +2772,29 @@
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
       <c r="AP23" s="1"/>
-    </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A24" s="38">
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1"/>
+    </row>
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A24" s="26">
         <v>4</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="11">
         <v>5742.19</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="11">
         <f>C19*2/4</f>
         <v>0.9</v>
       </c>
-      <c r="D24" s="39">
-        <f t="shared" si="5"/>
+      <c r="D24" s="27">
+        <f t="shared" si="9"/>
         <v>5167.9709999999995</v>
       </c>
-      <c r="E24" s="23"/>
-      <c r="F24" s="39"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -2547,7 +2817,6 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
@@ -2561,24 +2830,29 @@
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
       <c r="AP24" s="1"/>
-    </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+    </row>
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
         <v>5</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="11">
         <v>7171.88</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="11">
         <f>C19*2/5</f>
         <v>0.72</v>
       </c>
-      <c r="D25" s="39">
-        <f t="shared" si="5"/>
+      <c r="D25" s="27">
+        <f t="shared" si="9"/>
         <v>5163.7536</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="39"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2601,7 +2875,6 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
@@ -2615,24 +2888,29 @@
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
-    </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A26" s="40">
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+    </row>
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A26" s="28">
         <v>6</v>
       </c>
-      <c r="B26" s="41">
+      <c r="B26" s="29">
         <v>8601.56</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="29">
         <f>C19*2/6</f>
         <v>0.6</v>
       </c>
-      <c r="D26" s="43">
-        <f t="shared" si="5"/>
+      <c r="D26" s="31">
+        <f t="shared" si="9"/>
         <v>5160.9359999999997</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="39"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -2655,7 +2933,6 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
@@ -2669,22 +2946,27 @@
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
       <c r="AP26" s="1"/>
-    </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41" t="s">
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+    </row>
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="29">
         <f>AVERAGE(D21:D26)</f>
         <v>5155.5500999999995</v>
       </c>
-      <c r="E27" s="42">
-        <f t="shared" ref="E27" si="6">$F$19*D27*D27</f>
+      <c r="E27" s="30">
+        <f t="shared" ref="E27" si="10">$F$19*D27*D27</f>
         <v>219107213106.79715</v>
       </c>
-      <c r="F27" s="43"/>
+      <c r="F27" s="31"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -2707,7 +2989,6 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
@@ -2721,8 +3002,13 @@
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
       <c r="AP27" s="1"/>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+    </row>
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2751,7 +3037,6 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
@@ -2765,24 +3050,29 @@
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
       <c r="AP28" s="1"/>
-    </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1"/>
+    </row>
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="23">
         <v>1</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="25">
         <f>$R$13</f>
         <v>8741.2587412587436</v>
       </c>
@@ -2808,7 +3098,6 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
@@ -2822,24 +3111,29 @@
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
       <c r="AP29" s="1"/>
-    </row>
-    <row r="30" spans="1:42" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+    </row>
+    <row r="30" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="39"/>
+      <c r="F30" s="27"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2862,7 +3156,6 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
@@ -2876,24 +3169,29 @@
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
       <c r="AP30" s="1"/>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A31" s="38">
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+    </row>
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A31" s="26">
         <v>1</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="11">
         <v>1710.94</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="11">
         <f>2*C29</f>
         <v>2</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="27">
         <f>C31*B31</f>
         <v>3421.88</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="39"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="27"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2916,7 +3214,6 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
@@ -2930,24 +3227,29 @@
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
       <c r="AP31" s="1"/>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A32" s="38">
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+    </row>
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A32" s="26">
         <v>2</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="11">
         <v>3445.31</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="11">
         <f>C29</f>
         <v>1</v>
       </c>
-      <c r="D32" s="39">
-        <f t="shared" ref="D32:D36" si="7">C32*B32</f>
+      <c r="D32" s="27">
+        <f t="shared" ref="D32:D35" si="11">C32*B32</f>
         <v>3445.31</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="39"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="27"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2970,7 +3272,6 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
@@ -2984,24 +3285,29 @@
       <c r="AN32" s="1"/>
       <c r="AO32" s="1"/>
       <c r="AP32" s="1"/>
-    </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A33" s="38">
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+    </row>
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A33" s="26">
         <v>3</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="11">
         <v>5156.25</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="11">
         <f>C29*2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D33" s="39">
-        <f t="shared" si="7"/>
+      <c r="D33" s="27">
+        <f t="shared" si="11"/>
         <v>3437.5</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="39"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="27"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -3024,7 +3330,6 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
@@ -3038,24 +3343,29 @@
       <c r="AN33" s="1"/>
       <c r="AO33" s="1"/>
       <c r="AP33" s="1"/>
-    </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A34" s="38">
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+    </row>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A34" s="26">
         <v>4</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="11">
         <v>6890.63</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="11">
         <f>C29*2/4</f>
         <v>0.5</v>
       </c>
-      <c r="D34" s="39">
-        <f t="shared" si="7"/>
+      <c r="D34" s="27">
+        <f t="shared" si="11"/>
         <v>3445.3150000000001</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="39"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="27"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -3078,7 +3388,6 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
@@ -3092,24 +3401,29 @@
       <c r="AN34" s="1"/>
       <c r="AO34" s="1"/>
       <c r="AP34" s="1"/>
-    </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A35" s="40">
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+    </row>
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A35" s="28">
         <v>5</v>
       </c>
-      <c r="B35" s="41">
+      <c r="B35" s="29">
         <v>8601.56</v>
       </c>
-      <c r="C35" s="41">
+      <c r="C35" s="29">
         <f>C29*2/5</f>
         <v>0.4</v>
       </c>
-      <c r="D35" s="43">
-        <f t="shared" si="7"/>
+      <c r="D35" s="31">
+        <f t="shared" si="11"/>
         <v>3440.6239999999998</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="39"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="27"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -3132,7 +3446,6 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
@@ -3146,22 +3459,27 @@
       <c r="AN35" s="1"/>
       <c r="AO35" s="1"/>
       <c r="AP35" s="1"/>
-    </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41" t="s">
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+    </row>
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="41">
+      <c r="D36" s="29">
         <f>AVERAGE(D31:D35)</f>
         <v>3438.1258000000003</v>
       </c>
-      <c r="E36" s="42">
-        <f t="shared" ref="E36" si="8">$F$29*D36*D36</f>
+      <c r="E36" s="30">
+        <f t="shared" ref="E36" si="12">$F$29*D36*D36</f>
         <v>103327876019.45494</v>
       </c>
-      <c r="F36" s="43"/>
+      <c r="F36" s="31"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -3184,7 +3502,6 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
@@ -3198,8 +3515,13 @@
       <c r="AN36" s="1"/>
       <c r="AO36" s="1"/>
       <c r="AP36" s="1"/>
-    </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+    </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3228,7 +3550,6 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
@@ -3242,8 +3563,13 @@
       <c r="AN37" s="1"/>
       <c r="AO37" s="1"/>
       <c r="AP37" s="1"/>
-    </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+    </row>
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3272,7 +3598,6 @@
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
       <c r="AF38" s="1"/>
@@ -3286,24 +3611,29 @@
       <c r="AN38" s="1"/>
       <c r="AO38" s="1"/>
       <c r="AP38" s="1"/>
-    </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="s">
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+    </row>
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="35">
+      <c r="C39" s="23">
         <v>1</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="35" t="s">
+      <c r="E39" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="37">
+      <c r="F39" s="25">
         <f>$R$14</f>
         <v>2790.6620158578912</v>
       </c>
@@ -3329,7 +3659,6 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
@@ -3343,24 +3672,29 @@
       <c r="AN39" s="1"/>
       <c r="AO39" s="1"/>
       <c r="AP39" s="1"/>
-    </row>
-    <row r="40" spans="1:42" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+    </row>
+    <row r="40" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F40" s="39"/>
+      <c r="F40" s="27"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -3383,7 +3717,6 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
-      <c r="AC40" s="1"/>
       <c r="AD40" s="1"/>
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
@@ -3397,24 +3730,29 @@
       <c r="AN40" s="1"/>
       <c r="AO40" s="1"/>
       <c r="AP40" s="1"/>
-    </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A41" s="38">
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A41" s="26">
         <v>1</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="11">
         <v>2460.94</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="11">
         <f>2*C39</f>
         <v>2</v>
       </c>
-      <c r="D41" s="39">
+      <c r="D41" s="27">
         <f>C41*B41</f>
         <v>4921.88</v>
       </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="39"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="27"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -3437,7 +3775,6 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
       <c r="AF41" s="1"/>
@@ -3451,24 +3788,29 @@
       <c r="AN41" s="1"/>
       <c r="AO41" s="1"/>
       <c r="AP41" s="1"/>
-    </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A42" s="38">
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A42" s="26">
         <v>2</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="11">
         <v>4945.3100000000004</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="11">
         <f>C39</f>
         <v>1</v>
       </c>
-      <c r="D42" s="39">
-        <f t="shared" ref="D42:D46" si="9">C42*B42</f>
+      <c r="D42" s="27">
+        <f t="shared" ref="D42:D44" si="13">C42*B42</f>
         <v>4945.3100000000004</v>
       </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="39"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="27"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -3491,7 +3833,6 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
-      <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
       <c r="AF42" s="1"/>
@@ -3505,24 +3846,29 @@
       <c r="AN42" s="1"/>
       <c r="AO42" s="1"/>
       <c r="AP42" s="1"/>
-    </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A43" s="38">
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1"/>
+      <c r="AT42" s="1"/>
+      <c r="AU42" s="1"/>
+    </row>
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A43" s="26">
         <v>3</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="11">
         <v>7406.25</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="11">
         <f>C39*2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D43" s="39">
-        <f t="shared" si="9"/>
+      <c r="D43" s="27">
+        <f t="shared" si="13"/>
         <v>4937.5</v>
       </c>
-      <c r="E43" s="23"/>
-      <c r="F43" s="39"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="27"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -3545,7 +3891,6 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
       <c r="AF43" s="1"/>
@@ -3559,24 +3904,29 @@
       <c r="AN43" s="1"/>
       <c r="AO43" s="1"/>
       <c r="AP43" s="1"/>
-    </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A44" s="40">
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="1"/>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A44" s="28">
         <v>4</v>
       </c>
-      <c r="B44" s="41">
+      <c r="B44" s="29">
         <v>9867.19</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44" s="29">
         <f>C39*2/4</f>
         <v>0.5</v>
       </c>
-      <c r="D44" s="43">
-        <f t="shared" si="9"/>
+      <c r="D44" s="31">
+        <f t="shared" si="13"/>
         <v>4933.5950000000003</v>
       </c>
-      <c r="E44" s="23"/>
-      <c r="F44" s="39"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="27"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -3599,7 +3949,6 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
-      <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
       <c r="AF44" s="1"/>
@@ -3613,22 +3962,27 @@
       <c r="AN44" s="1"/>
       <c r="AO44" s="1"/>
       <c r="AP44" s="1"/>
-    </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41" t="s">
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1"/>
+      <c r="AT44" s="1"/>
+      <c r="AU44" s="1"/>
+    </row>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A45" s="28"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D45" s="41">
+      <c r="D45" s="29">
         <f>AVERAGE(D41:D44)</f>
         <v>4934.57125</v>
       </c>
-      <c r="E45" s="42">
-        <f t="shared" ref="E45" si="10">$F$39*D45*D45</f>
+      <c r="E45" s="30">
+        <f t="shared" ref="E45" si="14">$F$39*D45*D45</f>
         <v>67952601727.285568</v>
       </c>
-      <c r="F45" s="43"/>
+      <c r="F45" s="31"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -3651,7 +4005,6 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
-      <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
       <c r="AF45" s="1"/>
@@ -3665,8 +4018,13 @@
       <c r="AN45" s="1"/>
       <c r="AO45" s="1"/>
       <c r="AP45" s="1"/>
-    </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="1"/>
+    </row>
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3695,7 +4053,6 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
-      <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
       <c r="AF46" s="1"/>
@@ -3709,8 +4066,13 @@
       <c r="AN46" s="1"/>
       <c r="AO46" s="1"/>
       <c r="AP46" s="1"/>
-    </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ46" s="1"/>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1"/>
+      <c r="AT46" s="1"/>
+      <c r="AU46" s="1"/>
+    </row>
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3739,7 +4101,6 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
-      <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
       <c r="AF47" s="1"/>
@@ -3753,8 +4114,13 @@
       <c r="AN47" s="1"/>
       <c r="AO47" s="1"/>
       <c r="AP47" s="1"/>
-    </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1"/>
+      <c r="AT47" s="1"/>
+      <c r="AU47" s="1"/>
+    </row>
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3783,7 +4149,6 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
-      <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
       <c r="AF48" s="1"/>
@@ -3797,8 +4162,13 @@
       <c r="AN48" s="1"/>
       <c r="AO48" s="1"/>
       <c r="AP48" s="1"/>
-    </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ48" s="1"/>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1"/>
+      <c r="AT48" s="1"/>
+      <c r="AU48" s="1"/>
+    </row>
+    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3827,7 +4197,6 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
       <c r="AF49" s="1"/>
@@ -3841,8 +4210,13 @@
       <c r="AN49" s="1"/>
       <c r="AO49" s="1"/>
       <c r="AP49" s="1"/>
-    </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ49" s="1"/>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1"/>
+      <c r="AT49" s="1"/>
+      <c r="AU49" s="1"/>
+    </row>
+    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3871,7 +4245,6 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
-      <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
       <c r="AF50" s="1"/>
@@ -3885,8 +4258,13 @@
       <c r="AN50" s="1"/>
       <c r="AO50" s="1"/>
       <c r="AP50" s="1"/>
-    </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ50" s="1"/>
+      <c r="AR50" s="1"/>
+      <c r="AS50" s="1"/>
+      <c r="AT50" s="1"/>
+      <c r="AU50" s="1"/>
+    </row>
+    <row r="51" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3915,7 +4293,6 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
-      <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
       <c r="AF51" s="1"/>
@@ -3929,8 +4306,13 @@
       <c r="AN51" s="1"/>
       <c r="AO51" s="1"/>
       <c r="AP51" s="1"/>
-    </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1"/>
+      <c r="AT51" s="1"/>
+      <c r="AU51" s="1"/>
+    </row>
+    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3959,7 +4341,6 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
-      <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
       <c r="AF52" s="1"/>
@@ -3973,8 +4354,13 @@
       <c r="AN52" s="1"/>
       <c r="AO52" s="1"/>
       <c r="AP52" s="1"/>
-    </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ52" s="1"/>
+      <c r="AR52" s="1"/>
+      <c r="AS52" s="1"/>
+      <c r="AT52" s="1"/>
+      <c r="AU52" s="1"/>
+    </row>
+    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -4003,7 +4389,6 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
-      <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
       <c r="AF53" s="1"/>
@@ -4017,8 +4402,13 @@
       <c r="AN53" s="1"/>
       <c r="AO53" s="1"/>
       <c r="AP53" s="1"/>
-    </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ53" s="1"/>
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="1"/>
+      <c r="AT53" s="1"/>
+      <c r="AU53" s="1"/>
+    </row>
+    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4047,7 +4437,6 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
-      <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
       <c r="AF54" s="1"/>
@@ -4061,8 +4450,13 @@
       <c r="AN54" s="1"/>
       <c r="AO54" s="1"/>
       <c r="AP54" s="1"/>
-    </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ54" s="1"/>
+      <c r="AR54" s="1"/>
+      <c r="AS54" s="1"/>
+      <c r="AT54" s="1"/>
+      <c r="AU54" s="1"/>
+    </row>
+    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4091,7 +4485,6 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
-      <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
       <c r="AF55" s="1"/>
@@ -4105,8 +4498,13 @@
       <c r="AN55" s="1"/>
       <c r="AO55" s="1"/>
       <c r="AP55" s="1"/>
-    </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ55" s="1"/>
+      <c r="AR55" s="1"/>
+      <c r="AS55" s="1"/>
+      <c r="AT55" s="1"/>
+      <c r="AU55" s="1"/>
+    </row>
+    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4135,7 +4533,6 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
-      <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
       <c r="AF56" s="1"/>
@@ -4149,8 +4546,13 @@
       <c r="AN56" s="1"/>
       <c r="AO56" s="1"/>
       <c r="AP56" s="1"/>
-    </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ56" s="1"/>
+      <c r="AR56" s="1"/>
+      <c r="AS56" s="1"/>
+      <c r="AT56" s="1"/>
+      <c r="AU56" s="1"/>
+    </row>
+    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4179,7 +4581,6 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
-      <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
       <c r="AF57" s="1"/>
@@ -4193,8 +4594,13 @@
       <c r="AN57" s="1"/>
       <c r="AO57" s="1"/>
       <c r="AP57" s="1"/>
-    </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ57" s="1"/>
+      <c r="AR57" s="1"/>
+      <c r="AS57" s="1"/>
+      <c r="AT57" s="1"/>
+      <c r="AU57" s="1"/>
+    </row>
+    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4223,7 +4629,6 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
-      <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
       <c r="AF58" s="1"/>
@@ -4237,8 +4642,13 @@
       <c r="AN58" s="1"/>
       <c r="AO58" s="1"/>
       <c r="AP58" s="1"/>
-    </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ58" s="1"/>
+      <c r="AR58" s="1"/>
+      <c r="AS58" s="1"/>
+      <c r="AT58" s="1"/>
+      <c r="AU58" s="1"/>
+    </row>
+    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4267,7 +4677,6 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
-      <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
       <c r="AF59" s="1"/>
@@ -4281,8 +4690,13 @@
       <c r="AN59" s="1"/>
       <c r="AO59" s="1"/>
       <c r="AP59" s="1"/>
-    </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ59" s="1"/>
+      <c r="AR59" s="1"/>
+      <c r="AS59" s="1"/>
+      <c r="AT59" s="1"/>
+      <c r="AU59" s="1"/>
+    </row>
+    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -4311,7 +4725,6 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
-      <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
       <c r="AF60" s="1"/>
@@ -4325,8 +4738,13 @@
       <c r="AN60" s="1"/>
       <c r="AO60" s="1"/>
       <c r="AP60" s="1"/>
-    </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ60" s="1"/>
+      <c r="AR60" s="1"/>
+      <c r="AS60" s="1"/>
+      <c r="AT60" s="1"/>
+      <c r="AU60" s="1"/>
+    </row>
+    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4355,7 +4773,6 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
-      <c r="AC61" s="1"/>
       <c r="AD61" s="1"/>
       <c r="AE61" s="1"/>
       <c r="AF61" s="1"/>
@@ -4369,8 +4786,13 @@
       <c r="AN61" s="1"/>
       <c r="AO61" s="1"/>
       <c r="AP61" s="1"/>
-    </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ61" s="1"/>
+      <c r="AR61" s="1"/>
+      <c r="AS61" s="1"/>
+      <c r="AT61" s="1"/>
+      <c r="AU61" s="1"/>
+    </row>
+    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4399,7 +4821,6 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
-      <c r="AC62" s="1"/>
       <c r="AD62" s="1"/>
       <c r="AE62" s="1"/>
       <c r="AF62" s="1"/>
@@ -4413,8 +4834,13 @@
       <c r="AN62" s="1"/>
       <c r="AO62" s="1"/>
       <c r="AP62" s="1"/>
-    </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ62" s="1"/>
+      <c r="AR62" s="1"/>
+      <c r="AS62" s="1"/>
+      <c r="AT62" s="1"/>
+      <c r="AU62" s="1"/>
+    </row>
+    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4443,7 +4869,6 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
-      <c r="AC63" s="1"/>
       <c r="AD63" s="1"/>
       <c r="AE63" s="1"/>
       <c r="AF63" s="1"/>
@@ -4457,8 +4882,13 @@
       <c r="AN63" s="1"/>
       <c r="AO63" s="1"/>
       <c r="AP63" s="1"/>
-    </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ63" s="1"/>
+      <c r="AR63" s="1"/>
+      <c r="AS63" s="1"/>
+      <c r="AT63" s="1"/>
+      <c r="AU63" s="1"/>
+    </row>
+    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4487,7 +4917,6 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
-      <c r="AC64" s="1"/>
       <c r="AD64" s="1"/>
       <c r="AE64" s="1"/>
       <c r="AF64" s="1"/>
@@ -4501,8 +4930,13 @@
       <c r="AN64" s="1"/>
       <c r="AO64" s="1"/>
       <c r="AP64" s="1"/>
-    </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ64" s="1"/>
+      <c r="AR64" s="1"/>
+      <c r="AS64" s="1"/>
+      <c r="AT64" s="1"/>
+      <c r="AU64" s="1"/>
+    </row>
+    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4531,7 +4965,6 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
-      <c r="AC65" s="1"/>
       <c r="AD65" s="1"/>
       <c r="AE65" s="1"/>
       <c r="AF65" s="1"/>
@@ -4545,8 +4978,13 @@
       <c r="AN65" s="1"/>
       <c r="AO65" s="1"/>
       <c r="AP65" s="1"/>
-    </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ65" s="1"/>
+      <c r="AR65" s="1"/>
+      <c r="AS65" s="1"/>
+      <c r="AT65" s="1"/>
+      <c r="AU65" s="1"/>
+    </row>
+    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4575,7 +5013,6 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
-      <c r="AC66" s="1"/>
       <c r="AD66" s="1"/>
       <c r="AE66" s="1"/>
       <c r="AF66" s="1"/>
@@ -4589,8 +5026,13 @@
       <c r="AN66" s="1"/>
       <c r="AO66" s="1"/>
       <c r="AP66" s="1"/>
-    </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ66" s="1"/>
+      <c r="AR66" s="1"/>
+      <c r="AS66" s="1"/>
+      <c r="AT66" s="1"/>
+      <c r="AU66" s="1"/>
+    </row>
+    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4619,7 +5061,6 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
-      <c r="AC67" s="1"/>
       <c r="AD67" s="1"/>
       <c r="AE67" s="1"/>
       <c r="AF67" s="1"/>
@@ -4633,8 +5074,13 @@
       <c r="AN67" s="1"/>
       <c r="AO67" s="1"/>
       <c r="AP67" s="1"/>
-    </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ67" s="1"/>
+      <c r="AR67" s="1"/>
+      <c r="AS67" s="1"/>
+      <c r="AT67" s="1"/>
+      <c r="AU67" s="1"/>
+    </row>
+    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -4663,7 +5109,6 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
-      <c r="AC68" s="1"/>
       <c r="AD68" s="1"/>
       <c r="AE68" s="1"/>
       <c r="AF68" s="1"/>
@@ -4677,8 +5122,13 @@
       <c r="AN68" s="1"/>
       <c r="AO68" s="1"/>
       <c r="AP68" s="1"/>
-    </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ68" s="1"/>
+      <c r="AR68" s="1"/>
+      <c r="AS68" s="1"/>
+      <c r="AT68" s="1"/>
+      <c r="AU68" s="1"/>
+    </row>
+    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4707,7 +5157,6 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
-      <c r="AC69" s="1"/>
       <c r="AD69" s="1"/>
       <c r="AE69" s="1"/>
       <c r="AF69" s="1"/>
@@ -4721,8 +5170,13 @@
       <c r="AN69" s="1"/>
       <c r="AO69" s="1"/>
       <c r="AP69" s="1"/>
-    </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ69" s="1"/>
+      <c r="AR69" s="1"/>
+      <c r="AS69" s="1"/>
+      <c r="AT69" s="1"/>
+      <c r="AU69" s="1"/>
+    </row>
+    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4751,7 +5205,6 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
-      <c r="AC70" s="1"/>
       <c r="AD70" s="1"/>
       <c r="AE70" s="1"/>
       <c r="AF70" s="1"/>
@@ -4765,8 +5218,13 @@
       <c r="AN70" s="1"/>
       <c r="AO70" s="1"/>
       <c r="AP70" s="1"/>
-    </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ70" s="1"/>
+      <c r="AR70" s="1"/>
+      <c r="AS70" s="1"/>
+      <c r="AT70" s="1"/>
+      <c r="AU70" s="1"/>
+    </row>
+    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4795,7 +5253,6 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
       <c r="AD71" s="1"/>
       <c r="AE71" s="1"/>
       <c r="AF71" s="1"/>
@@ -4809,8 +5266,13 @@
       <c r="AN71" s="1"/>
       <c r="AO71" s="1"/>
       <c r="AP71" s="1"/>
-    </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ71" s="1"/>
+      <c r="AR71" s="1"/>
+      <c r="AS71" s="1"/>
+      <c r="AT71" s="1"/>
+      <c r="AU71" s="1"/>
+    </row>
+    <row r="72" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4839,7 +5301,6 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
       <c r="AF72" s="1"/>
@@ -4853,8 +5314,13 @@
       <c r="AN72" s="1"/>
       <c r="AO72" s="1"/>
       <c r="AP72" s="1"/>
-    </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ72" s="1"/>
+      <c r="AR72" s="1"/>
+      <c r="AS72" s="1"/>
+      <c r="AT72" s="1"/>
+      <c r="AU72" s="1"/>
+    </row>
+    <row r="73" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4883,7 +5349,6 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
-      <c r="AC73" s="1"/>
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
       <c r="AF73" s="1"/>
@@ -4897,8 +5362,13 @@
       <c r="AN73" s="1"/>
       <c r="AO73" s="1"/>
       <c r="AP73" s="1"/>
-    </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ73" s="1"/>
+      <c r="AR73" s="1"/>
+      <c r="AS73" s="1"/>
+      <c r="AT73" s="1"/>
+      <c r="AU73" s="1"/>
+    </row>
+    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4927,7 +5397,6 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
-      <c r="AC74" s="1"/>
       <c r="AD74" s="1"/>
       <c r="AE74" s="1"/>
       <c r="AF74" s="1"/>
@@ -4941,8 +5410,13 @@
       <c r="AN74" s="1"/>
       <c r="AO74" s="1"/>
       <c r="AP74" s="1"/>
-    </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ74" s="1"/>
+      <c r="AR74" s="1"/>
+      <c r="AS74" s="1"/>
+      <c r="AT74" s="1"/>
+      <c r="AU74" s="1"/>
+    </row>
+    <row r="75" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4971,7 +5445,6 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
-      <c r="AC75" s="1"/>
       <c r="AD75" s="1"/>
       <c r="AE75" s="1"/>
       <c r="AF75" s="1"/>
@@ -4985,8 +5458,13 @@
       <c r="AN75" s="1"/>
       <c r="AO75" s="1"/>
       <c r="AP75" s="1"/>
-    </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ75" s="1"/>
+      <c r="AR75" s="1"/>
+      <c r="AS75" s="1"/>
+      <c r="AT75" s="1"/>
+      <c r="AU75" s="1"/>
+    </row>
+    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -5015,7 +5493,6 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
-      <c r="AC76" s="1"/>
       <c r="AD76" s="1"/>
       <c r="AE76" s="1"/>
       <c r="AF76" s="1"/>
@@ -5029,8 +5506,13 @@
       <c r="AN76" s="1"/>
       <c r="AO76" s="1"/>
       <c r="AP76" s="1"/>
-    </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ76" s="1"/>
+      <c r="AR76" s="1"/>
+      <c r="AS76" s="1"/>
+      <c r="AT76" s="1"/>
+      <c r="AU76" s="1"/>
+    </row>
+    <row r="77" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -5059,7 +5541,6 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
-      <c r="AC77" s="1"/>
       <c r="AD77" s="1"/>
       <c r="AE77" s="1"/>
       <c r="AF77" s="1"/>
@@ -5073,8 +5554,13 @@
       <c r="AN77" s="1"/>
       <c r="AO77" s="1"/>
       <c r="AP77" s="1"/>
-    </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ77" s="1"/>
+      <c r="AR77" s="1"/>
+      <c r="AS77" s="1"/>
+      <c r="AT77" s="1"/>
+      <c r="AU77" s="1"/>
+    </row>
+    <row r="78" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -5103,7 +5589,6 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
-      <c r="AC78" s="1"/>
       <c r="AD78" s="1"/>
       <c r="AE78" s="1"/>
       <c r="AF78" s="1"/>
@@ -5117,8 +5602,13 @@
       <c r="AN78" s="1"/>
       <c r="AO78" s="1"/>
       <c r="AP78" s="1"/>
-    </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ78" s="1"/>
+      <c r="AR78" s="1"/>
+      <c r="AS78" s="1"/>
+      <c r="AT78" s="1"/>
+      <c r="AU78" s="1"/>
+    </row>
+    <row r="79" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -5147,7 +5637,6 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
       <c r="AD79" s="1"/>
       <c r="AE79" s="1"/>
       <c r="AF79" s="1"/>
@@ -5161,8 +5650,13 @@
       <c r="AN79" s="1"/>
       <c r="AO79" s="1"/>
       <c r="AP79" s="1"/>
-    </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ79" s="1"/>
+      <c r="AR79" s="1"/>
+      <c r="AS79" s="1"/>
+      <c r="AT79" s="1"/>
+      <c r="AU79" s="1"/>
+    </row>
+    <row r="80" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -5191,7 +5685,6 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
-      <c r="AC80" s="1"/>
       <c r="AD80" s="1"/>
       <c r="AE80" s="1"/>
       <c r="AF80" s="1"/>
@@ -5205,8 +5698,13 @@
       <c r="AN80" s="1"/>
       <c r="AO80" s="1"/>
       <c r="AP80" s="1"/>
-    </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ80" s="1"/>
+      <c r="AR80" s="1"/>
+      <c r="AS80" s="1"/>
+      <c r="AT80" s="1"/>
+      <c r="AU80" s="1"/>
+    </row>
+    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5235,7 +5733,6 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
-      <c r="AC81" s="1"/>
       <c r="AD81" s="1"/>
       <c r="AE81" s="1"/>
       <c r="AF81" s="1"/>
@@ -5249,8 +5746,13 @@
       <c r="AN81" s="1"/>
       <c r="AO81" s="1"/>
       <c r="AP81" s="1"/>
-    </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ81" s="1"/>
+      <c r="AR81" s="1"/>
+      <c r="AS81" s="1"/>
+      <c r="AT81" s="1"/>
+      <c r="AU81" s="1"/>
+    </row>
+    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5279,7 +5781,6 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
-      <c r="AC82" s="1"/>
       <c r="AD82" s="1"/>
       <c r="AE82" s="1"/>
       <c r="AF82" s="1"/>
@@ -5293,8 +5794,13 @@
       <c r="AN82" s="1"/>
       <c r="AO82" s="1"/>
       <c r="AP82" s="1"/>
-    </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ82" s="1"/>
+      <c r="AR82" s="1"/>
+      <c r="AS82" s="1"/>
+      <c r="AT82" s="1"/>
+      <c r="AU82" s="1"/>
+    </row>
+    <row r="83" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -5323,7 +5829,6 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
-      <c r="AC83" s="1"/>
       <c r="AD83" s="1"/>
       <c r="AE83" s="1"/>
       <c r="AF83" s="1"/>
@@ -5337,8 +5842,13 @@
       <c r="AN83" s="1"/>
       <c r="AO83" s="1"/>
       <c r="AP83" s="1"/>
-    </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ83" s="1"/>
+      <c r="AR83" s="1"/>
+      <c r="AS83" s="1"/>
+      <c r="AT83" s="1"/>
+      <c r="AU83" s="1"/>
+    </row>
+    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -5367,7 +5877,6 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
-      <c r="AC84" s="1"/>
       <c r="AD84" s="1"/>
       <c r="AE84" s="1"/>
       <c r="AF84" s="1"/>
@@ -5381,8 +5890,13 @@
       <c r="AN84" s="1"/>
       <c r="AO84" s="1"/>
       <c r="AP84" s="1"/>
-    </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ84" s="1"/>
+      <c r="AR84" s="1"/>
+      <c r="AS84" s="1"/>
+      <c r="AT84" s="1"/>
+      <c r="AU84" s="1"/>
+    </row>
+    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -5411,7 +5925,6 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
-      <c r="AC85" s="1"/>
       <c r="AD85" s="1"/>
       <c r="AE85" s="1"/>
       <c r="AF85" s="1"/>
@@ -5425,8 +5938,13 @@
       <c r="AN85" s="1"/>
       <c r="AO85" s="1"/>
       <c r="AP85" s="1"/>
-    </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ85" s="1"/>
+      <c r="AR85" s="1"/>
+      <c r="AS85" s="1"/>
+      <c r="AT85" s="1"/>
+      <c r="AU85" s="1"/>
+    </row>
+    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -5455,7 +5973,6 @@
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
-      <c r="AC86" s="1"/>
       <c r="AD86" s="1"/>
       <c r="AE86" s="1"/>
       <c r="AF86" s="1"/>
@@ -5469,8 +5986,13 @@
       <c r="AN86" s="1"/>
       <c r="AO86" s="1"/>
       <c r="AP86" s="1"/>
-    </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ86" s="1"/>
+      <c r="AR86" s="1"/>
+      <c r="AS86" s="1"/>
+      <c r="AT86" s="1"/>
+      <c r="AU86" s="1"/>
+    </row>
+    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -5499,7 +6021,6 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
-      <c r="AC87" s="1"/>
       <c r="AD87" s="1"/>
       <c r="AE87" s="1"/>
       <c r="AF87" s="1"/>
@@ -5513,8 +6034,13 @@
       <c r="AN87" s="1"/>
       <c r="AO87" s="1"/>
       <c r="AP87" s="1"/>
-    </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ87" s="1"/>
+      <c r="AR87" s="1"/>
+      <c r="AS87" s="1"/>
+      <c r="AT87" s="1"/>
+      <c r="AU87" s="1"/>
+    </row>
+    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -5543,7 +6069,6 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
-      <c r="AC88" s="1"/>
       <c r="AD88" s="1"/>
       <c r="AE88" s="1"/>
       <c r="AF88" s="1"/>
@@ -5557,8 +6082,13 @@
       <c r="AN88" s="1"/>
       <c r="AO88" s="1"/>
       <c r="AP88" s="1"/>
-    </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ88" s="1"/>
+      <c r="AR88" s="1"/>
+      <c r="AS88" s="1"/>
+      <c r="AT88" s="1"/>
+      <c r="AU88" s="1"/>
+    </row>
+    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5587,7 +6117,6 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
-      <c r="AC89" s="1"/>
       <c r="AD89" s="1"/>
       <c r="AE89" s="1"/>
       <c r="AF89" s="1"/>
@@ -5601,8 +6130,13 @@
       <c r="AN89" s="1"/>
       <c r="AO89" s="1"/>
       <c r="AP89" s="1"/>
-    </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ89" s="1"/>
+      <c r="AR89" s="1"/>
+      <c r="AS89" s="1"/>
+      <c r="AT89" s="1"/>
+      <c r="AU89" s="1"/>
+    </row>
+    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -5631,7 +6165,6 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
-      <c r="AC90" s="1"/>
       <c r="AD90" s="1"/>
       <c r="AE90" s="1"/>
       <c r="AF90" s="1"/>
@@ -5645,8 +6178,13 @@
       <c r="AN90" s="1"/>
       <c r="AO90" s="1"/>
       <c r="AP90" s="1"/>
-    </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ90" s="1"/>
+      <c r="AR90" s="1"/>
+      <c r="AS90" s="1"/>
+      <c r="AT90" s="1"/>
+      <c r="AU90" s="1"/>
+    </row>
+    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -5675,7 +6213,6 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
-      <c r="AC91" s="1"/>
       <c r="AD91" s="1"/>
       <c r="AE91" s="1"/>
       <c r="AF91" s="1"/>
@@ -5689,8 +6226,13 @@
       <c r="AN91" s="1"/>
       <c r="AO91" s="1"/>
       <c r="AP91" s="1"/>
-    </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ91" s="1"/>
+      <c r="AR91" s="1"/>
+      <c r="AS91" s="1"/>
+      <c r="AT91" s="1"/>
+      <c r="AU91" s="1"/>
+    </row>
+    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -5719,7 +6261,6 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
-      <c r="AC92" s="1"/>
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
       <c r="AF92" s="1"/>
@@ -5733,8 +6274,13 @@
       <c r="AN92" s="1"/>
       <c r="AO92" s="1"/>
       <c r="AP92" s="1"/>
-    </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ92" s="1"/>
+      <c r="AR92" s="1"/>
+      <c r="AS92" s="1"/>
+      <c r="AT92" s="1"/>
+      <c r="AU92" s="1"/>
+    </row>
+    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5763,7 +6309,6 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
-      <c r="AC93" s="1"/>
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
       <c r="AF93" s="1"/>
@@ -5777,8 +6322,13 @@
       <c r="AN93" s="1"/>
       <c r="AO93" s="1"/>
       <c r="AP93" s="1"/>
-    </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ93" s="1"/>
+      <c r="AR93" s="1"/>
+      <c r="AS93" s="1"/>
+      <c r="AT93" s="1"/>
+      <c r="AU93" s="1"/>
+    </row>
+    <row r="94" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -5807,7 +6357,6 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
-      <c r="AC94" s="1"/>
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
       <c r="AF94" s="1"/>
@@ -5821,8 +6370,13 @@
       <c r="AN94" s="1"/>
       <c r="AO94" s="1"/>
       <c r="AP94" s="1"/>
-    </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ94" s="1"/>
+      <c r="AR94" s="1"/>
+      <c r="AS94" s="1"/>
+      <c r="AT94" s="1"/>
+      <c r="AU94" s="1"/>
+    </row>
+    <row r="95" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -5851,7 +6405,6 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
-      <c r="AC95" s="1"/>
       <c r="AD95" s="1"/>
       <c r="AE95" s="1"/>
       <c r="AF95" s="1"/>
@@ -5865,8 +6418,13 @@
       <c r="AN95" s="1"/>
       <c r="AO95" s="1"/>
       <c r="AP95" s="1"/>
-    </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ95" s="1"/>
+      <c r="AR95" s="1"/>
+      <c r="AS95" s="1"/>
+      <c r="AT95" s="1"/>
+      <c r="AU95" s="1"/>
+    </row>
+    <row r="96" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -5895,7 +6453,6 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
-      <c r="AC96" s="1"/>
       <c r="AD96" s="1"/>
       <c r="AE96" s="1"/>
       <c r="AF96" s="1"/>
@@ -5909,14 +6466,23 @@
       <c r="AN96" s="1"/>
       <c r="AO96" s="1"/>
       <c r="AP96" s="1"/>
+      <c r="AQ96" s="1"/>
+      <c r="AR96" s="1"/>
+      <c r="AS96" s="1"/>
+      <c r="AT96" s="1"/>
+      <c r="AU96" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P9:P10"/>
+  <mergeCells count="22">
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="T9:T10"/>
     <mergeCell ref="J8:R8"/>
     <mergeCell ref="E40:E44"/>
     <mergeCell ref="E30:E35"/>
@@ -5925,6 +6491,11 @@
     <mergeCell ref="M9:O9"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L9:L10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P9:P10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Lab 5 - Fale podłużne w ciałach stałych/Zeszyt1.xlsx
+++ b/Lab 5 - Fale podłużne w ciałach stałych/Zeszyt1.xlsx
@@ -280,9 +280,6 @@
     <t>w tabelce</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>przyk. Lambda [m]</t>
   </si>
   <si>
@@ -299,6 +296,9 @@
   </si>
   <si>
     <t xml:space="preserve">u(v) [m/s]                                                                                                                                     </t>
+  </si>
+  <si>
+    <t>E [ Pa ]</t>
   </si>
 </sst>
 </file>
@@ -796,22 +796,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -829,10 +823,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1143,7 @@
     <col min="20" max="20" width="11.7109375" customWidth="1"/>
     <col min="21" max="25" width="12.28515625" customWidth="1"/>
     <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -1624,17 +1624,17 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -1690,51 +1690,51 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="45" t="s">
+      <c r="K9" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="42" t="s">
+      <c r="M9" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="43"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="36" t="s">
+      <c r="N9" s="41"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="Q9" s="36" t="s">
+      <c r="Q9" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R9" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="S9" s="48" t="s">
+      <c r="S9" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="T9" s="41" t="s">
+      <c r="T9" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="U9" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="V9" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="W9" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="U9" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="V9" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="W9" s="47" t="s">
+      <c r="X9" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="X9" s="47" t="s">
+      <c r="Y9" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z9" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="Y9" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z9" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA9" s="47" t="s">
+      <c r="AA9" s="37" t="s">
         <v>63</v>
       </c>
       <c r="AB9" s="1"/>
@@ -1770,7 +1770,7 @@
       <c r="D10" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="38" t="s">
         <v>42</v>
       </c>
       <c r="F10" s="27"/>
@@ -1778,8 +1778,8 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="37"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="46"/>
       <c r="M10" s="9" t="s">
         <v>52</v>
       </c>
@@ -1789,18 +1789,18 @@
       <c r="O10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
       <c r="AB10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -1836,7 +1836,7 @@
         <f>C11*B11</f>
         <v>3712.5</v>
       </c>
-      <c r="E11" s="41"/>
+      <c r="E11" s="38"/>
       <c r="F11" s="27"/>
       <c r="G11" s="1"/>
       <c r="H11" s="6" t="s">
@@ -1852,10 +1852,10 @@
       <c r="L11" s="11">
         <v>67</v>
       </c>
-      <c r="M11" s="36">
+      <c r="M11" s="45">
         <v>5</v>
       </c>
-      <c r="N11" s="36"/>
+      <c r="N11" s="45"/>
       <c r="O11" s="11">
         <v>384</v>
       </c>
@@ -1942,7 +1942,7 @@
         <f t="shared" ref="D12:D16" si="2">C12*B12</f>
         <v>3712.5</v>
       </c>
-      <c r="E12" s="41"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="27"/>
       <c r="G12" s="1"/>
       <c r="H12" s="7" t="s">
@@ -2050,7 +2050,7 @@
         <f t="shared" si="2"/>
         <v>3712.5</v>
       </c>
-      <c r="E13" s="41"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="27"/>
       <c r="G13" s="1"/>
       <c r="H13" s="7" t="s">
@@ -2157,7 +2157,7 @@
         <f t="shared" si="2"/>
         <v>3712.5</v>
       </c>
-      <c r="E14" s="41"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="27"/>
       <c r="G14" s="1"/>
       <c r="H14" s="7" t="s">
@@ -2173,10 +2173,10 @@
       <c r="L14" s="9">
         <v>24</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="46">
         <v>5</v>
       </c>
-      <c r="N14" s="37"/>
+      <c r="N14" s="46"/>
       <c r="O14" s="9">
         <v>438</v>
       </c>
@@ -2262,7 +2262,7 @@
         <f t="shared" si="2"/>
         <v>3712.5</v>
       </c>
-      <c r="E15" s="41"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="27"/>
       <c r="G15" s="1"/>
       <c r="H15" s="7" t="s">
@@ -2326,7 +2326,7 @@
         <f t="shared" si="2"/>
         <v>3712.5</v>
       </c>
-      <c r="E16" s="41"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="27"/>
       <c r="G16" s="1"/>
       <c r="H16" s="7" t="s">
@@ -2559,7 +2559,7 @@
       <c r="D20" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="38" t="s">
         <v>42</v>
       </c>
       <c r="F20" s="27"/>
@@ -2619,7 +2619,7 @@
         <f>C21*B21</f>
         <v>5146.884</v>
       </c>
-      <c r="E21" s="41"/>
+      <c r="E21" s="38"/>
       <c r="F21" s="27"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -2677,7 +2677,7 @@
         <f t="shared" ref="D22:D26" si="9">C22*B22</f>
         <v>5146.884</v>
       </c>
-      <c r="E22" s="41"/>
+      <c r="E22" s="38"/>
       <c r="F22" s="27"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -2735,7 +2735,7 @@
         <f t="shared" si="9"/>
         <v>5146.8720000000003</v>
       </c>
-      <c r="E23" s="41"/>
+      <c r="E23" s="38"/>
       <c r="F23" s="27"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -2793,7 +2793,7 @@
         <f t="shared" si="9"/>
         <v>5167.9709999999995</v>
       </c>
-      <c r="E24" s="41"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="27"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2851,7 +2851,7 @@
         <f t="shared" si="9"/>
         <v>5163.7536</v>
       </c>
-      <c r="E25" s="41"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="27"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2909,7 +2909,7 @@
         <f t="shared" si="9"/>
         <v>5160.9359999999997</v>
       </c>
-      <c r="E26" s="41"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="27"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -3130,7 +3130,7 @@
       <c r="D30" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="38" t="s">
         <v>42</v>
       </c>
       <c r="F30" s="27"/>
@@ -3190,7 +3190,7 @@
         <f>C31*B31</f>
         <v>3421.88</v>
       </c>
-      <c r="E31" s="41"/>
+      <c r="E31" s="38"/>
       <c r="F31" s="27"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -3248,7 +3248,7 @@
         <f t="shared" ref="D32:D35" si="11">C32*B32</f>
         <v>3445.31</v>
       </c>
-      <c r="E32" s="41"/>
+      <c r="E32" s="38"/>
       <c r="F32" s="27"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -3306,7 +3306,7 @@
         <f t="shared" si="11"/>
         <v>3437.5</v>
       </c>
-      <c r="E33" s="41"/>
+      <c r="E33" s="38"/>
       <c r="F33" s="27"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -3364,7 +3364,7 @@
         <f t="shared" si="11"/>
         <v>3445.3150000000001</v>
       </c>
-      <c r="E34" s="41"/>
+      <c r="E34" s="38"/>
       <c r="F34" s="27"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -3422,7 +3422,7 @@
         <f t="shared" si="11"/>
         <v>3440.6239999999998</v>
       </c>
-      <c r="E35" s="41"/>
+      <c r="E35" s="38"/>
       <c r="F35" s="27"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -3691,7 +3691,7 @@
       <c r="D40" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="41" t="s">
+      <c r="E40" s="38" t="s">
         <v>42</v>
       </c>
       <c r="F40" s="27"/>
@@ -3751,7 +3751,7 @@
         <f>C41*B41</f>
         <v>4921.88</v>
       </c>
-      <c r="E41" s="41"/>
+      <c r="E41" s="38"/>
       <c r="F41" s="27"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -3809,7 +3809,7 @@
         <f t="shared" ref="D42:D44" si="13">C42*B42</f>
         <v>4945.3100000000004</v>
       </c>
-      <c r="E42" s="41"/>
+      <c r="E42" s="38"/>
       <c r="F42" s="27"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -3867,7 +3867,7 @@
         <f t="shared" si="13"/>
         <v>4937.5</v>
       </c>
-      <c r="E43" s="41"/>
+      <c r="E43" s="38"/>
       <c r="F43" s="27"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -3925,7 +3925,7 @@
         <f t="shared" si="13"/>
         <v>4933.5950000000003</v>
       </c>
-      <c r="E44" s="41"/>
+      <c r="E44" s="38"/>
       <c r="F44" s="27"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -6474,15 +6474,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="X9:X10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="T9:T10"/>
     <mergeCell ref="J8:R8"/>
     <mergeCell ref="E40:E44"/>
     <mergeCell ref="E30:E35"/>
@@ -6496,6 +6487,15 @@
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="P9:P10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="T9:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
